--- a/_myscripts/Graduation Requirements.xlsx
+++ b/_myscripts/Graduation Requirements.xlsx
@@ -17,51 +17,45 @@
     <author/>
   </authors>
   <commentList>
-    <comment authorId="0" ref="M49">
+    <comment authorId="0" ref="M53">
       <text>
         <t xml:space="preserve">MA3236 or MA3252, S2
 	-Lim Li</t>
       </text>
     </comment>
-    <comment authorId="0" ref="M48">
+    <comment authorId="0" ref="M52">
       <text>
         <t xml:space="preserve">S1
 	-Lim Li</t>
       </text>
     </comment>
-    <comment authorId="0" ref="M47">
+    <comment authorId="0" ref="M51">
       <text>
         <t xml:space="preserve">MA3233, S1
 	-Lim Li</t>
       </text>
     </comment>
-    <comment authorId="0" ref="M46">
+    <comment authorId="0" ref="M50">
       <text>
         <t xml:space="preserve">MA3236, S2
 	-Lim Li</t>
       </text>
     </comment>
-    <comment authorId="0" ref="M41">
+    <comment authorId="0" ref="M45">
       <text>
         <t xml:space="preserve">S1
 	-Lim Li</t>
       </text>
     </comment>
-    <comment authorId="0" ref="M42">
+    <comment authorId="0" ref="M46">
       <text>
         <t xml:space="preserve">S1
 	-Lim Li</t>
       </text>
     </comment>
-    <comment authorId="0" ref="M50">
+    <comment authorId="0" ref="M54">
       <text>
         <t xml:space="preserve">S1
-	-Lim Li</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="A29">
-      <text>
-        <t xml:space="preserve">S2
 	-Lim Li</t>
       </text>
     </comment>
@@ -70,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="156">
   <si>
     <t>Bachelor of Computing (Honours) in Computer Science</t>
   </si>
@@ -108,7 +102,7 @@
     <t>cap done</t>
   </si>
   <si>
-    <t>double not done</t>
+    <t>double done</t>
   </si>
   <si>
     <t>University Level Requirements (20 MCs)</t>
@@ -117,7 +111,13 @@
     <t>GEH</t>
   </si>
   <si>
-    <t>GET</t>
+    <t>GET1004</t>
+  </si>
+  <si>
+    <t>Cyber Security</t>
+  </si>
+  <si>
+    <t>S</t>
   </si>
   <si>
     <t>GES1021</t>
@@ -126,9 +126,6 @@
     <t>Natural Heritage of Singapore</t>
   </si>
   <si>
-    <t>S</t>
-  </si>
-  <si>
     <t>GEQ1000</t>
   </si>
   <si>
@@ -186,10 +183,265 @@
     <t>Internship</t>
   </si>
   <si>
+    <t>LAJ2202</t>
+  </si>
+  <si>
+    <t>Japanese 3</t>
+  </si>
+  <si>
+    <t>CS2107</t>
+  </si>
+  <si>
+    <t>Introduction to Information Security</t>
+  </si>
+  <si>
+    <t>(3) Programme Requirements (108 MCs)</t>
+  </si>
+  <si>
     <t>Faculty Requirements (16 MCs from at least 3 distinct subject groups ...)</t>
   </si>
   <si>
-    <t>(3) Programme Requirements (108 MCs)</t>
+    <t>Computer Science Foundation</t>
+  </si>
+  <si>
+    <t>CM/LSM/etc</t>
+  </si>
+  <si>
+    <t>CS1010</t>
+  </si>
+  <si>
+    <t>Programming Methodology</t>
+  </si>
+  <si>
+    <t>EXE</t>
+  </si>
+  <si>
+    <t>PC1432</t>
+  </si>
+  <si>
+    <t>Physics IIE</t>
+  </si>
+  <si>
+    <t>CS1231</t>
+  </si>
+  <si>
+    <t>Discrete Structures</t>
+  </si>
+  <si>
+    <t>CS2030</t>
+  </si>
+  <si>
+    <t>Programming Methodology II</t>
+  </si>
+  <si>
+    <t>CS2040</t>
+  </si>
+  <si>
+    <t>Data Structures and Algorithms</t>
+  </si>
+  <si>
+    <t>CS2100</t>
+  </si>
+  <si>
+    <t>Computer Organisation</t>
+  </si>
+  <si>
+    <t>Major Requirements (60-66 MCs)</t>
+  </si>
+  <si>
+    <t>CS2103T</t>
+  </si>
+  <si>
+    <t>Software Engineering</t>
+  </si>
+  <si>
+    <t>CS2105</t>
+  </si>
+  <si>
+    <t>Introduction to Computer Networks</t>
+  </si>
+  <si>
+    <t>Level-1000</t>
+  </si>
+  <si>
+    <t>CS2106</t>
+  </si>
+  <si>
+    <t>Introduction to Operating Systems</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>CS3230</t>
+  </si>
+  <si>
+    <t>Design and Analysis of Algorithms</t>
+  </si>
+  <si>
+    <t>MA1101R</t>
+  </si>
+  <si>
+    <t>Linear Algebra I</t>
+  </si>
+  <si>
+    <t>Computer Science Breadth and Depth</t>
+  </si>
+  <si>
+    <t>MA1102R</t>
+  </si>
+  <si>
+    <t>Calculus</t>
+  </si>
+  <si>
+    <t>CS4231</t>
+  </si>
+  <si>
+    <t>Parallel and Distributed Algorithms</t>
+  </si>
+  <si>
+    <t>CS4232</t>
+  </si>
+  <si>
+    <t>Theory of Computation</t>
+  </si>
+  <si>
+    <t>CS3233</t>
+  </si>
+  <si>
+    <t>Level-2000</t>
+  </si>
+  <si>
+    <t>CS4</t>
+  </si>
+  <si>
+    <t>MA2101S</t>
+  </si>
+  <si>
+    <t>Linear Algebra II (S)</t>
+  </si>
+  <si>
+    <t>CS3235</t>
+  </si>
+  <si>
+    <t>Computer Security</t>
+  </si>
+  <si>
+    <t>MA2104</t>
+  </si>
+  <si>
+    <t>Multivariable Calculus</t>
+  </si>
+  <si>
+    <t>CS3243</t>
+  </si>
+  <si>
+    <t>Introduction to Artificial Intelligence</t>
+  </si>
+  <si>
+    <t>MA2108S</t>
+  </si>
+  <si>
+    <t>Mathematical Analysis I (S)</t>
+  </si>
+  <si>
+    <t>CS3203</t>
+  </si>
+  <si>
+    <t>Software Engineering Project</t>
+  </si>
+  <si>
+    <t>MA2213</t>
+  </si>
+  <si>
+    <t>Numerical Analysis I</t>
+  </si>
+  <si>
+    <t>PROJECT</t>
+  </si>
+  <si>
+    <t>CP4101 B.Comp. Dissertation</t>
+  </si>
+  <si>
+    <t>ST2131</t>
+  </si>
+  <si>
+    <t>Probability</t>
+  </si>
+  <si>
+    <t>IT Professionalism</t>
+  </si>
+  <si>
+    <t>II, III, IV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MA2214 </t>
+  </si>
+  <si>
+    <t>Combinatorics and Graphs I</t>
+  </si>
+  <si>
+    <t>IS1103</t>
+  </si>
+  <si>
+    <t>IS Innovations in Organisations and Society</t>
+  </si>
+  <si>
+    <t>CS2101</t>
+  </si>
+  <si>
+    <t>Effective Communication for Computing Professionals</t>
+  </si>
+  <si>
+    <t>Level-3000</t>
+  </si>
+  <si>
+    <t>ES2660</t>
+  </si>
+  <si>
+    <t>Communicating in the Information Age</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>MA3110S</t>
+  </si>
+  <si>
+    <t>Mathematical Analysis II (S)</t>
+  </si>
+  <si>
+    <t>Mathematics and Sciences</t>
+  </si>
+  <si>
+    <t>MA3111</t>
+  </si>
+  <si>
+    <t>Complex Analysis I</t>
+  </si>
+  <si>
+    <t>AM3</t>
+  </si>
+  <si>
+    <t>MA3233</t>
+  </si>
+  <si>
+    <t>Combinatorics and Graphs II</t>
+  </si>
+  <si>
+    <t>MA3236</t>
+  </si>
+  <si>
+    <t>Non-Linear Programming</t>
+  </si>
+  <si>
+    <t>III, IV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CS4236 </t>
+  </si>
+  <si>
+    <t>Cryptography Theory and Practice</t>
   </si>
   <si>
     <t>ST2132</t>
@@ -198,252 +450,6 @@
     <t>Mathematical Statistics</t>
   </si>
   <si>
-    <t>Computer Science Foundation</t>
-  </si>
-  <si>
-    <t>PC1432</t>
-  </si>
-  <si>
-    <t>Physics IIE</t>
-  </si>
-  <si>
-    <t>CS1010</t>
-  </si>
-  <si>
-    <t>Programming Methodology</t>
-  </si>
-  <si>
-    <t>EXE</t>
-  </si>
-  <si>
-    <t>CM/LSM/etc</t>
-  </si>
-  <si>
-    <t>CS1231</t>
-  </si>
-  <si>
-    <t>Discrete Structures</t>
-  </si>
-  <si>
-    <t>CS2030</t>
-  </si>
-  <si>
-    <t>Programming Methodology II</t>
-  </si>
-  <si>
-    <t>CS2040</t>
-  </si>
-  <si>
-    <t>Data Structures and Algorithms</t>
-  </si>
-  <si>
-    <t>Major Requirements (60-66 MCs)</t>
-  </si>
-  <si>
-    <t>CS2100</t>
-  </si>
-  <si>
-    <t>Computer Organisation</t>
-  </si>
-  <si>
-    <t>CS2103T</t>
-  </si>
-  <si>
-    <t>Software Engineering</t>
-  </si>
-  <si>
-    <t>Level-1000</t>
-  </si>
-  <si>
-    <t>CS2105</t>
-  </si>
-  <si>
-    <t>Introduction to Computer Networks</t>
-  </si>
-  <si>
-    <t>CS2106</t>
-  </si>
-  <si>
-    <t>Introduction to Operating Systems</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>MA1101R</t>
-  </si>
-  <si>
-    <t>Linear Algebra I</t>
-  </si>
-  <si>
-    <t>CS3230</t>
-  </si>
-  <si>
-    <t>Design and Analysis of Algorithms</t>
-  </si>
-  <si>
-    <t>MA1102R</t>
-  </si>
-  <si>
-    <t>Calculus</t>
-  </si>
-  <si>
-    <t>Computer Science Breadth and Depth</t>
-  </si>
-  <si>
-    <t>CS4231</t>
-  </si>
-  <si>
-    <t>Parallel and Distributed Algorithms</t>
-  </si>
-  <si>
-    <t>CS3236</t>
-  </si>
-  <si>
-    <t>Introduction to Information Theory</t>
-  </si>
-  <si>
-    <t>Level-2000</t>
-  </si>
-  <si>
-    <t>CS3233</t>
-  </si>
-  <si>
-    <t>MA2101S</t>
-  </si>
-  <si>
-    <t>Linear Algebra II (S)</t>
-  </si>
-  <si>
-    <t>CS2107</t>
-  </si>
-  <si>
-    <t>Introduction to Information Security</t>
-  </si>
-  <si>
-    <t>MA2104</t>
-  </si>
-  <si>
-    <t>Multivariable Calculus</t>
-  </si>
-  <si>
-    <t>CS3235</t>
-  </si>
-  <si>
-    <t>Computer Security</t>
-  </si>
-  <si>
-    <t>MA2108S</t>
-  </si>
-  <si>
-    <t>Mathematical Analysis I (S)</t>
-  </si>
-  <si>
-    <t>CS3243</t>
-  </si>
-  <si>
-    <t>Introduction to Artificial Intelligence</t>
-  </si>
-  <si>
-    <t>MA2213</t>
-  </si>
-  <si>
-    <t>Numerical Analysis I</t>
-  </si>
-  <si>
-    <t>CS3203</t>
-  </si>
-  <si>
-    <t>Software Engineering Project</t>
-  </si>
-  <si>
-    <t>ST2131</t>
-  </si>
-  <si>
-    <t>Probability</t>
-  </si>
-  <si>
-    <t>PROJECT</t>
-  </si>
-  <si>
-    <t>CP4101 B.Comp. Dissertation</t>
-  </si>
-  <si>
-    <t>II, III, IV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MA2214 </t>
-  </si>
-  <si>
-    <t>Combinatorics and Graphs I</t>
-  </si>
-  <si>
-    <t>IT Professionalism</t>
-  </si>
-  <si>
-    <t>IS1103</t>
-  </si>
-  <si>
-    <t>IS Innovations in Organisations and Society</t>
-  </si>
-  <si>
-    <t>Level-3000</t>
-  </si>
-  <si>
-    <t>CS2101</t>
-  </si>
-  <si>
-    <t>Effective Communication for Computing Professionals</t>
-  </si>
-  <si>
-    <t>MA3110S</t>
-  </si>
-  <si>
-    <t>Mathematical Analysis II (S)</t>
-  </si>
-  <si>
-    <t>ES2660</t>
-  </si>
-  <si>
-    <t>Communicating in the Information Age</t>
-  </si>
-  <si>
-    <t>MA3111</t>
-  </si>
-  <si>
-    <t>Complex Analysis I</t>
-  </si>
-  <si>
-    <t>Mathematics and Sciences</t>
-  </si>
-  <si>
-    <t>AM3</t>
-  </si>
-  <si>
-    <t>MA3233</t>
-  </si>
-  <si>
-    <t>Combinatorics and Graphs II</t>
-  </si>
-  <si>
-    <t>MA3236</t>
-  </si>
-  <si>
-    <t>Non-Linear Programming</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>III, IV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CS4236 </t>
-  </si>
-  <si>
-    <t>Cryptography Theory and Practice</t>
-  </si>
-  <si>
     <t>Level-4000</t>
   </si>
   <si>
@@ -480,25 +486,22 @@
     <t>IV</t>
   </si>
   <si>
-    <t>CS4232</t>
-  </si>
-  <si>
-    <t>Theory of Computation</t>
-  </si>
-  <si>
     <t>Total MCs:</t>
   </si>
   <si>
     <t>Total Major MCs:</t>
   </si>
   <si>
-    <t>Total Double Counted MCs:</t>
-  </si>
-  <si>
     <t>MCs Completed:</t>
   </si>
   <si>
     <t>CAP:</t>
+  </si>
+  <si>
+    <t>Total MCs (both degree)</t>
+  </si>
+  <si>
+    <t>Total MCs done (both degree)</t>
   </si>
   <si>
     <t>Total remainging MCs (both degree)</t>
@@ -743,28 +746,28 @@
         <v>4.0</v>
       </c>
       <c r="E5" t="b">
-        <f t="shared" ref="E5:E50" si="1">AND(NOT(ISNA(MATCH(A5,M:M,0))),LEFT(A5,2)&lt;&gt;"GE")</f>
-        <v>0</v>
+        <f t="shared" ref="E5:E54" si="1">NOT(ISNA(MATCH(A5,M:M,0)))</f>
+        <v>1</v>
       </c>
       <c r="F5">
-        <f t="shared" ref="F5:F50" si="2">IF(E5,C5,0)</f>
-        <v>0</v>
+        <f t="shared" ref="F5:F54" si="2">IF(E5,C5,0)</f>
+        <v>4</v>
       </c>
       <c r="G5">
         <f>IFNA(INDIRECT(CONCAT("Sheet2!B",MATCH(D5,Sheet2!A:A,0))),0)</f>
         <v>0</v>
       </c>
       <c r="H5">
-        <f t="shared" ref="H5:H50" si="3">IF(G5&gt;0,C5,0)</f>
+        <f t="shared" ref="H5:H54" si="3">IF(G5&gt;0,C5,0)</f>
         <v>0</v>
       </c>
       <c r="I5">
-        <f t="shared" ref="I5:I50" si="4">IF(ISTEXT(D5),C5,0)</f>
+        <f t="shared" ref="I5:I54" si="4">IF(ISTEXT(D5),C5,0)</f>
         <v>0</v>
       </c>
       <c r="J5">
-        <f t="shared" ref="J5:J50" si="5">IF(NOT(ISNA(MATCH(A5,M:M,0))),C5-I5,0)</f>
-        <v>4</v>
+        <f t="shared" ref="J5:J54" si="5">IF(E5,I5,0)</f>
+        <v>0</v>
       </c>
       <c r="M5" s="4" t="s">
         <v>14</v>
@@ -773,23 +776,23 @@
         <v>4.0</v>
       </c>
       <c r="Q5" t="b">
-        <f t="shared" ref="Q5:Q50" si="6">AND(NOT(ISNA(MATCH(M5,A:A,0))),LEFT(A5,2)&lt;&gt;"GE")</f>
-        <v>0</v>
+        <f t="shared" ref="Q5:Q54" si="6">NOT(ISNA(MATCH(M5,A:A,0)))</f>
+        <v>1</v>
       </c>
       <c r="R5">
-        <f t="shared" ref="R5:R50" si="7">IF(Q5,O5,0)</f>
-        <v>0</v>
+        <f t="shared" ref="R5:R54" si="7">IF(Q5,O5,0)</f>
+        <v>4</v>
       </c>
       <c r="S5">
         <f>IFNA(INDIRECT(CONCAT("Sheet2!B",MATCH(P5,Sheet2!A:A,0))),0)</f>
         <v>0</v>
       </c>
       <c r="T5">
-        <f t="shared" ref="T5:T50" si="8">IF(S5&gt;0,O5,0)</f>
+        <f t="shared" ref="T5:T54" si="8">IF(S5&gt;0,O5,0)</f>
         <v>0</v>
       </c>
       <c r="U5">
-        <f t="shared" ref="U5:U50" si="9">IF(ISTEXT(P5),O5,0)</f>
+        <f t="shared" ref="U5:U54" si="9">IF(ISTEXT(P5),O5,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -797,16 +800,22 @@
       <c r="A6" s="4" t="s">
         <v>15</v>
       </c>
+      <c r="B6" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="C6" s="4">
         <v>4.0</v>
       </c>
+      <c r="D6" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="E6" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G6">
         <f>IFNA(INDIRECT(CONCAT("Sheet2!B",MATCH(D6,Sheet2!A:A,0))),0)</f>
@@ -818,7 +827,7 @@
       </c>
       <c r="I6">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J6">
         <f t="shared" si="5"/>
@@ -827,16 +836,22 @@
       <c r="M6" s="4" t="s">
         <v>15</v>
       </c>
+      <c r="N6" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="O6" s="4">
         <v>4.0</v>
       </c>
+      <c r="P6" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="Q6" t="b">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R6">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S6">
         <f>IFNA(INDIRECT(CONCAT("Sheet2!B",MATCH(P6,Sheet2!A:A,0))),0)</f>
@@ -848,29 +863,29 @@
       </c>
       <c r="U6">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="4">
-        <v>4.0</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>18</v>
-      </c>
       <c r="E7" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G7">
         <f>IFNA(INDIRECT(CONCAT("Sheet2!B",MATCH(D7,Sheet2!A:A,0))),0)</f>
@@ -886,27 +901,27 @@
       </c>
       <c r="J7">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="N7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="O7" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="P7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="O7" s="4">
-        <v>4.0</v>
-      </c>
-      <c r="P7" s="4" t="s">
-        <v>18</v>
-      </c>
       <c r="Q7" t="b">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R7">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S7">
         <f>IFNA(INDIRECT(CONCAT("Sheet2!B",MATCH(P7,Sheet2!A:A,0))),0)</f>
@@ -923,24 +938,24 @@
     </row>
     <row r="8">
       <c r="A8" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C8" s="4">
         <v>4.0</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G8">
         <f>IFNA(INDIRECT(CONCAT("Sheet2!B",MATCH(D8,Sheet2!A:A,0))),0)</f>
@@ -956,27 +971,27 @@
       </c>
       <c r="J8">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O8" s="4">
         <v>4.0</v>
       </c>
       <c r="P8" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Q8" t="b">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R8">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S8">
         <f>IFNA(INDIRECT(CONCAT("Sheet2!B",MATCH(P8,Sheet2!A:A,0))),0)</f>
@@ -993,24 +1008,24 @@
     </row>
     <row r="9">
       <c r="A9" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" s="4">
         <v>4.0</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E9" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G9">
         <f>IFNA(INDIRECT(CONCAT("Sheet2!B",MATCH(D9,Sheet2!A:A,0))),0)</f>
@@ -1026,27 +1041,27 @@
       </c>
       <c r="J9">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O9" s="4">
         <v>4.0</v>
       </c>
       <c r="P9" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q9" t="b">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R9">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S9">
         <f>IFNA(INDIRECT(CONCAT("Sheet2!B",MATCH(P9,Sheet2!A:A,0))),0)</f>
@@ -1109,7 +1124,7 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E11" t="b">
         <f t="shared" si="1"/>
@@ -1136,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Q11" t="b">
         <f t="shared" si="6"/>
@@ -1161,16 +1176,16 @@
     </row>
     <row r="12">
       <c r="A12" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C12" s="4">
         <v>1.0</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E12" t="b">
         <f t="shared" si="1"/>
@@ -1197,16 +1212,16 @@
         <v>0</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N12" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O12" s="4">
         <v>4.0</v>
       </c>
       <c r="P12" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q12" t="b">
         <f t="shared" si="6"/>
@@ -1231,16 +1246,16 @@
     </row>
     <row r="13">
       <c r="A13" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C13" s="4">
         <v>4.0</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E13" t="b">
         <f t="shared" si="1"/>
@@ -1267,16 +1282,16 @@
         <v>0</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N13" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O13" s="4">
         <v>4.0</v>
       </c>
       <c r="P13" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q13" t="b">
         <f t="shared" si="6"/>
@@ -1301,16 +1316,16 @@
     </row>
     <row r="14">
       <c r="A14" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C14" s="4">
         <v>6.0</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E14" t="b">
         <f t="shared" si="1"/>
@@ -1336,6 +1351,18 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="M14" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="N14" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="O14" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="P14" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="Q14" t="b">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -1354,10 +1381,22 @@
       </c>
       <c r="U14">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15">
+      <c r="A15" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="E15" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -1368,22 +1407,19 @@
       </c>
       <c r="G15">
         <f>IFNA(INDIRECT(CONCAT("Sheet2!B",MATCH(D15,Sheet2!A:A,0))),0)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H15">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I15">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J15">
         <f t="shared" si="5"/>
         <v>0</v>
-      </c>
-      <c r="M15" s="3" t="s">
-        <v>38</v>
       </c>
       <c r="Q15" t="b">
         <f t="shared" si="6"/>
@@ -1407,9 +1443,6 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="3" t="s">
-        <v>39</v>
-      </c>
       <c r="E16" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -1434,22 +1467,13 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="M16" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="N16" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="O16" s="5">
-        <v>4.0</v>
-      </c>
       <c r="Q16" t="b">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R16">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="S16">
         <f>IFNA(INDIRECT(CONCAT("Sheet2!B",MATCH(P16,Sheet2!A:A,0))),0)</f>
@@ -1465,11 +1489,6 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
       <c r="E17" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -1494,18 +1513,6 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="M17" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="N17" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="O17" s="4">
-        <v>4.0</v>
-      </c>
-      <c r="P17" s="4" t="s">
-        <v>29</v>
-      </c>
       <c r="Q17" t="b">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -1516,37 +1523,25 @@
       </c>
       <c r="S17">
         <f>IFNA(INDIRECT(CONCAT("Sheet2!B",MATCH(P17,Sheet2!A:A,0))),0)</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="T17">
         <f t="shared" si="8"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U17">
         <f t="shared" si="9"/>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" s="4">
-        <v>4.0</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>47</v>
-      </c>
       <c r="E18" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G18">
         <f>IFNA(INDIRECT(CONCAT("Sheet2!B",MATCH(D18,Sheet2!A:A,0))),0)</f>
@@ -1558,17 +1553,11 @@
       </c>
       <c r="I18">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <f t="shared" si="5"/>
         <v>0</v>
-      </c>
-      <c r="M18" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="O18" s="4">
-        <v>4.0</v>
       </c>
       <c r="Q18" t="b">
         <f t="shared" si="6"/>
@@ -1592,44 +1581,36 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C19" s="4">
-        <v>4.0</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>29</v>
+      <c r="A19" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="E19" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G19">
         <f>IFNA(INDIRECT(CONCAT("Sheet2!B",MATCH(D19,Sheet2!A:A,0))),0)</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H19">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I19">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J19">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="M19" s="4"/>
-      <c r="O19" s="4"/>
+      <c r="M19" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="Q19" t="b">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -1652,18 +1633,11 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C20" s="4">
-        <v>4.0</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>29</v>
-      </c>
+      <c r="A20" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
       <c r="E20" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -1674,19 +1648,25 @@
       </c>
       <c r="G20">
         <f>IFNA(INDIRECT(CONCAT("Sheet2!B",MATCH(D20,Sheet2!A:A,0))),0)</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H20">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I20">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J20">
         <f t="shared" si="5"/>
         <v>0</v>
+      </c>
+      <c r="M20" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="O20" s="5">
+        <v>4.0</v>
       </c>
       <c r="Q20" t="b">
         <f t="shared" si="6"/>
@@ -1711,24 +1691,24 @@
     </row>
     <row r="21">
       <c r="A21" s="4" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C21" s="4">
         <v>4.0</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E21" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G21">
         <f>IFNA(INDIRECT(CONCAT("Sheet2!B",MATCH(D21,Sheet2!A:A,0))),0)</f>
@@ -1744,10 +1724,19 @@
       </c>
       <c r="J21">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="M21" s="3" t="s">
-        <v>55</v>
+        <v>4</v>
+      </c>
+      <c r="M21" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="N21" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="O21" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="P21" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="Q21" t="b">
         <f t="shared" si="6"/>
@@ -1759,37 +1748,37 @@
       </c>
       <c r="S21">
         <f>IFNA(INDIRECT(CONCAT("Sheet2!B",MATCH(P21,Sheet2!A:A,0))),0)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T21">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U21">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C22" s="4">
         <v>4.0</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E22" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G22">
         <f>IFNA(INDIRECT(CONCAT("Sheet2!B",MATCH(D22,Sheet2!A:A,0))),0)</f>
@@ -1805,7 +1794,7 @@
       </c>
       <c r="J22">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q22" t="b">
         <f t="shared" si="6"/>
@@ -1830,16 +1819,16 @@
     </row>
     <row r="23">
       <c r="A23" s="4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C23" s="4">
         <v>4.0</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E23" t="b">
         <f t="shared" si="1"/>
@@ -1851,7 +1840,7 @@
       </c>
       <c r="G23">
         <f>IFNA(INDIRECT(CONCAT("Sheet2!B",MATCH(D23,Sheet2!A:A,0))),0)</f>
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="H23">
         <f t="shared" si="3"/>
@@ -1865,10 +1854,8 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="M23" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="O23" s="6"/>
+      <c r="M23" s="4"/>
+      <c r="O23" s="4"/>
       <c r="Q23" t="b">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -1892,16 +1879,16 @@
     </row>
     <row r="24">
       <c r="A24" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C24" s="4">
         <v>4.0</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="E24" t="b">
         <f t="shared" si="1"/>
@@ -1913,11 +1900,11 @@
       </c>
       <c r="G24">
         <f>IFNA(INDIRECT(CONCAT("Sheet2!B",MATCH(D24,Sheet2!A:A,0))),0)</f>
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="H24">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I24">
         <f t="shared" si="4"/>
@@ -1927,51 +1914,39 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="M24" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="N24" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="O24" s="4">
-        <v>4.0</v>
-      </c>
-      <c r="P24" s="4" t="s">
-        <v>29</v>
-      </c>
       <c r="Q24" t="b">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R24">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="S24">
         <f>IFNA(INDIRECT(CONCAT("Sheet2!B",MATCH(P24,Sheet2!A:A,0))),0)</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="T24">
         <f t="shared" si="8"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U24">
         <f t="shared" si="9"/>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="4" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C25" s="4">
         <v>4.0</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="E25" t="b">
         <f t="shared" si="1"/>
@@ -1997,25 +1972,16 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="M25" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="N25" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="O25" s="4">
-        <v>4.0</v>
-      </c>
-      <c r="P25" s="4" t="s">
-        <v>47</v>
+      <c r="M25" s="3" t="s">
+        <v>60</v>
       </c>
       <c r="Q25" t="b">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R25">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="S25">
         <f>IFNA(INDIRECT(CONCAT("Sheet2!B",MATCH(P25,Sheet2!A:A,0))),0)</f>
@@ -2027,21 +1993,21 @@
       </c>
       <c r="U25">
         <f t="shared" si="9"/>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="4" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C26" s="4">
         <v>4.0</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E26" t="b">
         <f t="shared" si="1"/>
@@ -2053,7 +2019,7 @@
       </c>
       <c r="G26">
         <f>IFNA(INDIRECT(CONCAT("Sheet2!B",MATCH(D26,Sheet2!A:A,0))),0)</f>
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="H26">
         <f t="shared" si="3"/>
@@ -2067,44 +2033,40 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="M26" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="N26" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="O26" s="4">
-        <v>4.0</v>
-      </c>
-      <c r="P26" s="4" t="s">
-        <v>29</v>
-      </c>
       <c r="Q26" t="b">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R26">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="S26">
         <f>IFNA(INDIRECT(CONCAT("Sheet2!B",MATCH(P26,Sheet2!A:A,0))),0)</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="T26">
         <f t="shared" si="8"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U26">
         <f t="shared" si="9"/>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C27" s="6"/>
+      <c r="A27" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C27" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="E27" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -2115,39 +2077,31 @@
       </c>
       <c r="G27">
         <f>IFNA(INDIRECT(CONCAT("Sheet2!B",MATCH(D27,Sheet2!A:A,0))),0)</f>
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="H27">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I27">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J27">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="M27" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="N27" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="O27" s="4">
-        <v>4.0</v>
-      </c>
-      <c r="P27" s="4" t="s">
-        <v>47</v>
-      </c>
+      <c r="M27" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="O27" s="6"/>
       <c r="Q27" t="b">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R27">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="S27">
         <f>IFNA(INDIRECT(CONCAT("Sheet2!B",MATCH(P27,Sheet2!A:A,0))),0)</f>
@@ -2159,21 +2113,21 @@
       </c>
       <c r="U27">
         <f t="shared" si="9"/>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="4" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C28" s="4">
         <v>4.0</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="E28" t="b">
         <f t="shared" si="1"/>
@@ -2199,36 +2153,51 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="M28" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="N28" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="O28" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="P28" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="Q28" t="b">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R28">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S28">
         <f>IFNA(INDIRECT(CONCAT("Sheet2!B",MATCH(P28,Sheet2!A:A,0))),0)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T28">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U28">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C29" s="4">
         <v>4.0</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="E29" t="b">
         <f t="shared" si="1"/>
@@ -2240,31 +2209,39 @@
       </c>
       <c r="G29">
         <f>IFNA(INDIRECT(CONCAT("Sheet2!B",MATCH(D29,Sheet2!A:A,0))),0)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H29">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I29">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J29">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="O29" s="6"/>
+      <c r="M29" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="N29" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="O29" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="P29" s="4" t="s">
+        <v>49</v>
+      </c>
       <c r="Q29" t="b">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R29">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S29">
         <f>IFNA(INDIRECT(CONCAT("Sheet2!B",MATCH(P29,Sheet2!A:A,0))),0)</f>
@@ -2276,22 +2253,14 @@
       </c>
       <c r="U29">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C30" s="4">
-        <v>4.0</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>29</v>
-      </c>
+      <c r="A30" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C30" s="6"/>
       <c r="E30" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -2302,65 +2271,65 @@
       </c>
       <c r="G30">
         <f>IFNA(INDIRECT(CONCAT("Sheet2!B",MATCH(D30,Sheet2!A:A,0))),0)</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H30">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I30">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J30">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M30" s="4" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="N30" s="4" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="O30" s="4">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="P30" s="4" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q30" t="b">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R30">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S30">
         <f>IFNA(INDIRECT(CONCAT("Sheet2!B",MATCH(P30,Sheet2!A:A,0))),0)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T30">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U30">
         <f t="shared" si="9"/>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C31" s="4">
         <v>4.0</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E31" t="b">
         <f t="shared" si="1"/>
@@ -2387,32 +2356,32 @@
         <v>0</v>
       </c>
       <c r="M31" s="4" t="s">
-        <v>83</v>
+        <v>47</v>
       </c>
       <c r="N31" s="4" t="s">
-        <v>84</v>
+        <v>48</v>
       </c>
       <c r="O31" s="4">
         <v>4.0</v>
       </c>
       <c r="P31" s="4" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="Q31" t="b">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R31">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S31">
         <f>IFNA(INDIRECT(CONCAT("Sheet2!B",MATCH(P31,Sheet2!A:A,0))),0)</f>
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="T31">
         <f t="shared" si="8"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U31">
         <f t="shared" si="9"/>
@@ -2420,53 +2389,38 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>86</v>
+      <c r="A32" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>79</v>
       </c>
       <c r="C32" s="4">
         <v>4.0</v>
       </c>
-      <c r="D32" s="4" t="s">
-        <v>29</v>
-      </c>
       <c r="E32" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F32">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G32">
         <f>IFNA(INDIRECT(CONCAT("Sheet2!B",MATCH(D32,Sheet2!A:A,0))),0)</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H32">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I32">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J32">
         <f t="shared" si="5"/>
         <v>0</v>
-      </c>
-      <c r="M32" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="N32" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="O32" s="4">
-        <v>5.0</v>
-      </c>
-      <c r="P32" s="4" t="s">
-        <v>65</v>
       </c>
       <c r="Q32" t="b">
         <f t="shared" si="6"/>
@@ -2478,29 +2432,29 @@
       </c>
       <c r="S32">
         <f>IFNA(INDIRECT(CONCAT("Sheet2!B",MATCH(P32,Sheet2!A:A,0))),0)</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="T32">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="U32">
         <f t="shared" si="9"/>
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="4" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>90</v>
+        <v>29</v>
       </c>
       <c r="C33" s="4">
         <v>4.0</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="E33" t="b">
         <f t="shared" si="1"/>
@@ -2526,18 +2480,10 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="M33" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="N33" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="O33" s="4">
-        <v>4.0</v>
-      </c>
-      <c r="P33" s="4" t="s">
-        <v>24</v>
-      </c>
+      <c r="M33" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="O33" s="6"/>
       <c r="Q33" t="b">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -2548,26 +2494,23 @@
       </c>
       <c r="S33">
         <f>IFNA(INDIRECT(CONCAT("Sheet2!B",MATCH(P33,Sheet2!A:A,0))),0)</f>
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="T33">
         <f t="shared" si="8"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U33">
         <f t="shared" si="9"/>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="C34" s="4">
-        <v>8.0</v>
+        <v>4.0</v>
       </c>
       <c r="E34" t="b">
         <f t="shared" si="1"/>
@@ -2593,87 +2536,87 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="M34" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="N34" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="O34" s="5">
-        <v>4.0</v>
-      </c>
-      <c r="P34" s="5" t="s">
-        <v>65</v>
+      <c r="M34" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="N34" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="O34" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="P34" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="Q34" t="b">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R34">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="S34">
         <f>IFNA(INDIRECT(CONCAT("Sheet2!B",MATCH(P34,Sheet2!A:A,0))),0)</f>
+        <v>0</v>
+      </c>
+      <c r="T34">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="U34">
+        <f t="shared" si="9"/>
         <v>5</v>
-      </c>
-      <c r="T34">
-        <f t="shared" si="8"/>
-        <v>4</v>
-      </c>
-      <c r="U34">
-        <f t="shared" si="9"/>
-        <v>4</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="4" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="C35" s="4">
-        <v>12.0</v>
+        <v>4.0</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="E35" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F35">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G35">
         <f>IFNA(INDIRECT(CONCAT("Sheet2!B",MATCH(D35,Sheet2!A:A,0))),0)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H35">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I35">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J35">
         <f t="shared" si="5"/>
-        <v>12</v>
-      </c>
-      <c r="L35" s="3" t="s">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="M35" s="4" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="N35" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="O35" s="5">
+        <v>88</v>
+      </c>
+      <c r="O35" s="4">
         <v>4.0</v>
       </c>
       <c r="P35" s="4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="Q35" t="b">
         <f t="shared" si="6"/>
@@ -2685,7 +2628,7 @@
       </c>
       <c r="S35">
         <f>IFNA(INDIRECT(CONCAT("Sheet2!B",MATCH(P35,Sheet2!A:A,0))),0)</f>
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="T35">
         <f t="shared" si="8"/>
@@ -2697,10 +2640,18 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C36" s="6"/>
+      <c r="A36" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C36" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>68</v>
+      </c>
       <c r="E36" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -2711,19 +2662,31 @@
       </c>
       <c r="G36">
         <f>IFNA(INDIRECT(CONCAT("Sheet2!B",MATCH(D36,Sheet2!A:A,0))),0)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H36">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I36">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J36">
         <f t="shared" si="5"/>
         <v>0</v>
+      </c>
+      <c r="M36" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="N36" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="O36" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="P36" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="Q36" t="b">
         <f t="shared" si="6"/>
@@ -2735,29 +2698,29 @@
       </c>
       <c r="S36">
         <f>IFNA(INDIRECT(CONCAT("Sheet2!B",MATCH(P36,Sheet2!A:A,0))),0)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T36">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U36">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="4" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="C37" s="4">
-        <v>4.0</v>
+        <v>8.0</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>18</v>
+        <v>68</v>
       </c>
       <c r="E37" t="b">
         <f t="shared" si="1"/>
@@ -2769,22 +2732,31 @@
       </c>
       <c r="G37">
         <f>IFNA(INDIRECT(CONCAT("Sheet2!B",MATCH(D37,Sheet2!A:A,0))),0)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H37">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I37">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J37">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="M37" s="3" t="s">
-        <v>105</v>
+      <c r="M37" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="N37" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="O37" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="P37" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="Q37" t="b">
         <f t="shared" si="6"/>
@@ -2796,37 +2768,34 @@
       </c>
       <c r="S37">
         <f>IFNA(INDIRECT(CONCAT("Sheet2!B",MATCH(P37,Sheet2!A:A,0))),0)</f>
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="T37">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U37">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="4" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="C38" s="4">
-        <v>4.0</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>18</v>
+        <v>12.0</v>
       </c>
       <c r="E38" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F38">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G38">
         <f>IFNA(INDIRECT(CONCAT("Sheet2!B",MATCH(D38,Sheet2!A:A,0))),0)</f>
@@ -2838,31 +2807,31 @@
       </c>
       <c r="I38">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J38">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="M38" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="N38" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="O38" s="4">
-        <v>5.0</v>
-      </c>
-      <c r="P38" s="4" t="s">
-        <v>29</v>
+      <c r="M38" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="N38" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="O38" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="P38" s="5" t="s">
+        <v>68</v>
       </c>
       <c r="Q38" t="b">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R38">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S38">
         <f>IFNA(INDIRECT(CONCAT("Sheet2!B",MATCH(P38,Sheet2!A:A,0))),0)</f>
@@ -2870,26 +2839,18 @@
       </c>
       <c r="T38">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U38">
         <f t="shared" si="9"/>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="C39" s="4">
-        <v>4.0</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>18</v>
-      </c>
+      <c r="A39" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C39" s="6"/>
       <c r="E39" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -2908,21 +2869,26 @@
       </c>
       <c r="I39">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J39">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L39" s="7"/>
+      <c r="L39" s="3" t="s">
+        <v>102</v>
+      </c>
       <c r="M39" s="4" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="N39" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="O39" s="4">
-        <v>4.0</v>
+        <v>104</v>
+      </c>
+      <c r="O39" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="P39" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="Q39" t="b">
         <f t="shared" si="6"/>
@@ -2934,22 +2900,30 @@
       </c>
       <c r="S39">
         <f>IFNA(INDIRECT(CONCAT("Sheet2!B",MATCH(P39,Sheet2!A:A,0))),0)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T39">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U39">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C40" s="6"/>
+      <c r="A40" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C40" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="E40" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -2968,26 +2942,11 @@
       </c>
       <c r="I40">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J40">
         <f t="shared" si="5"/>
         <v>0</v>
-      </c>
-      <c r="L40" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="M40" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="N40" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="O40" s="4">
-        <v>4.0</v>
-      </c>
-      <c r="P40" s="4" t="s">
-        <v>29</v>
       </c>
       <c r="Q40" t="b">
         <f t="shared" si="6"/>
@@ -2999,45 +2958,45 @@
       </c>
       <c r="S40">
         <f>IFNA(INDIRECT(CONCAT("Sheet2!B",MATCH(P40,Sheet2!A:A,0))),0)</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="T40">
         <f t="shared" si="8"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U40">
         <f t="shared" si="9"/>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="4" t="s">
-        <v>70</v>
+        <v>107</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>71</v>
+        <v>108</v>
       </c>
       <c r="C41" s="4">
         <v>4.0</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E41" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F41">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G41">
         <f>IFNA(INDIRECT(CONCAT("Sheet2!B",MATCH(D41,Sheet2!A:A,0))),0)</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H41">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I41">
         <f t="shared" si="4"/>
@@ -3047,14 +3006,8 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="M41" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="N41" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="O41" s="4">
-        <v>4.0</v>
+      <c r="M41" s="3" t="s">
+        <v>109</v>
       </c>
       <c r="Q41" t="b">
         <f t="shared" si="6"/>
@@ -3079,24 +3032,24 @@
     </row>
     <row r="42">
       <c r="A42" s="4" t="s">
-        <v>66</v>
+        <v>110</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>67</v>
+        <v>111</v>
       </c>
       <c r="C42" s="4">
         <v>4.0</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="E42" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F42">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G42">
         <f>IFNA(INDIRECT(CONCAT("Sheet2!B",MATCH(D42,Sheet2!A:A,0))),0)</f>
@@ -3115,19 +3068,19 @@
         <v>0</v>
       </c>
       <c r="K42" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="L42" s="7" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="M42" s="4" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="N42" s="4" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="O42" s="4">
-        <v>4.0</v>
+        <v>5.0</v>
+      </c>
+      <c r="P42" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="Q42" t="b">
         <f t="shared" si="6"/>
@@ -3139,53 +3092,55 @@
       </c>
       <c r="S42">
         <f>IFNA(INDIRECT(CONCAT("Sheet2!B",MATCH(P42,Sheet2!A:A,0))),0)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T42">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U42">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="C43" s="4">
-        <v>4.0</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>65</v>
-      </c>
+      <c r="A43" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C43" s="6"/>
       <c r="E43" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F43">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G43">
         <f>IFNA(INDIRECT(CONCAT("Sheet2!B",MATCH(D43,Sheet2!A:A,0))),0)</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H43">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I43">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J43">
         <f t="shared" si="5"/>
         <v>0</v>
+      </c>
+      <c r="L43" s="7"/>
+      <c r="M43" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="N43" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="O43" s="4">
+        <v>4.0</v>
       </c>
       <c r="Q43" t="b">
         <f t="shared" si="6"/>
@@ -3210,13 +3165,16 @@
     </row>
     <row r="44">
       <c r="A44" s="4" t="s">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="C44" s="4">
         <v>4.0</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="E44" t="b">
         <f t="shared" si="1"/>
@@ -3228,22 +3186,34 @@
       </c>
       <c r="G44">
         <f>IFNA(INDIRECT(CONCAT("Sheet2!B",MATCH(D44,Sheet2!A:A,0))),0)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H44">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I44">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J44">
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="M44" s="3" t="s">
-        <v>124</v>
+      <c r="L44" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="M44" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="N44" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="O44" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="P44" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="Q44" t="b">
         <f t="shared" si="6"/>
@@ -3255,25 +3225,37 @@
       </c>
       <c r="S44">
         <f>IFNA(INDIRECT(CONCAT("Sheet2!B",MATCH(P44,Sheet2!A:A,0))),0)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T44">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U44">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="45">
+      <c r="A45" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C45" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>49</v>
+      </c>
       <c r="E45" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F45">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G45">
         <f>IFNA(INDIRECT(CONCAT("Sheet2!B",MATCH(D45,Sheet2!A:A,0))),0)</f>
@@ -3285,75 +3267,90 @@
       </c>
       <c r="I45">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J45">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M45" s="4" t="s">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="N45" s="4" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="O45" s="4">
-        <v>12.0</v>
+        <v>4.0</v>
+      </c>
+      <c r="P45" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="Q45" t="b">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R45">
         <f t="shared" si="7"/>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="S45">
         <f>IFNA(INDIRECT(CONCAT("Sheet2!B",MATCH(P45,Sheet2!A:A,0))),0)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T45">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U45">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46">
+      <c r="A46" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C46" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>68</v>
+      </c>
       <c r="E46" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F46">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G46">
         <f>IFNA(INDIRECT(CONCAT("Sheet2!B",MATCH(D46,Sheet2!A:A,0))),0)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H46">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I46">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J46">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="M46" s="4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="N46" s="4" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="O46" s="4">
         <v>4.0</v>
@@ -3380,6 +3377,18 @@
       </c>
     </row>
     <row r="47">
+      <c r="A47" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C47" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>68</v>
+      </c>
       <c r="E47" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3390,28 +3399,19 @@
       </c>
       <c r="G47">
         <f>IFNA(INDIRECT(CONCAT("Sheet2!B",MATCH(D47,Sheet2!A:A,0))),0)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H47">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I47">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J47">
         <f t="shared" si="5"/>
         <v>0</v>
-      </c>
-      <c r="M47" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="N47" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="O47" s="4">
-        <v>4.0</v>
       </c>
       <c r="Q47" t="b">
         <f t="shared" si="6"/>
@@ -3459,14 +3459,8 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="M48" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="N48" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="O48" s="4">
-        <v>4.0</v>
+      <c r="M48" s="3" t="s">
+        <v>128</v>
       </c>
       <c r="Q48" t="b">
         <f t="shared" si="6"/>
@@ -3515,21 +3509,21 @@
         <v>0</v>
       </c>
       <c r="M49" s="4" t="s">
-        <v>133</v>
+        <v>97</v>
       </c>
       <c r="N49" s="4" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="O49" s="4">
-        <v>4.0</v>
+        <v>12.0</v>
       </c>
       <c r="Q49" t="b">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R49">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="S49">
         <f>IFNA(INDIRECT(CONCAT("Sheet2!B",MATCH(P49,Sheet2!A:A,0))),0)</f>
@@ -3569,16 +3563,16 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L50" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="M50" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="N50" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="O50" s="5">
+      <c r="L50" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="M50" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="N50" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="O50" s="4">
         <v>4.0</v>
       </c>
       <c r="Q50" t="b">
@@ -3602,154 +3596,382 @@
         <v>0</v>
       </c>
     </row>
+    <row r="51">
+      <c r="E51" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <f>IFNA(INDIRECT(CONCAT("Sheet2!B",MATCH(D51,Sheet2!A:A,0))),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M51" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="N51" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="O51" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="Q51" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R51">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S51">
+        <f>IFNA(INDIRECT(CONCAT("Sheet2!B",MATCH(P51,Sheet2!A:A,0))),0)</f>
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="U51">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="E52" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <f>IFNA(INDIRECT(CONCAT("Sheet2!B",MATCH(D52,Sheet2!A:A,0))),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M52" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="N52" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="O52" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="P52" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q52" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R52">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S52">
+        <f>IFNA(INDIRECT(CONCAT("Sheet2!B",MATCH(P52,Sheet2!A:A,0))),0)</f>
+        <v>5</v>
+      </c>
+      <c r="T52">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="U52">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="E53" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <f>IFNA(INDIRECT(CONCAT("Sheet2!B",MATCH(D53,Sheet2!A:A,0))),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M53" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="N53" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="O53" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="Q53" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R53">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S53">
+        <f>IFNA(INDIRECT(CONCAT("Sheet2!B",MATCH(P53,Sheet2!A:A,0))),0)</f>
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="U53">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="E54" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <f>IFNA(INDIRECT(CONCAT("Sheet2!B",MATCH(D54,Sheet2!A:A,0))),0)</f>
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L54" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="M54" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="N54" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="O54" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="Q54" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="R54">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="S54">
+        <f>IFNA(INDIRECT(CONCAT("Sheet2!B",MATCH(P54,Sheet2!A:A,0))),0)</f>
+        <v>0</v>
+      </c>
+      <c r="T54">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="U54">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
     <row r="57">
       <c r="B57" s="4" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C57">
-        <f>SUM(C5:C50)</f>
-        <v>139</v>
+        <f>SUM(C5:C54)</f>
+        <v>143</v>
       </c>
       <c r="N57" s="4" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="O57">
-        <f>SUM(O5:O50)</f>
+        <f>SUM(O5:O54)</f>
         <v>135</v>
       </c>
     </row>
     <row r="58">
       <c r="B58" s="4" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C58">
-        <f>SUM(C16:C50)</f>
+        <f>SUM(C19:C54)</f>
         <v>108</v>
       </c>
       <c r="N58" s="4" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="O58">
-        <f>SUM(O15:O50)</f>
-        <v>107</v>
+        <f>SUM(O19:O54)</f>
+        <v>103</v>
       </c>
     </row>
     <row r="59">
       <c r="B59" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="C59">
-        <f>SUM(F5:F50)</f>
-        <v>36</v>
+        <v>142</v>
+      </c>
+      <c r="C59" s="9">
+        <f>SUM(I5:I54)</f>
+        <v>119</v>
+      </c>
+      <c r="D59" s="10">
+        <f>C59/C57</f>
+        <v>0.8321678322</v>
       </c>
       <c r="N59" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="O59">
-        <f>SUM(R5:R50)</f>
-        <v>36</v>
+        <v>142</v>
+      </c>
+      <c r="O59" s="9">
+        <f>SUM(U5:U54)</f>
+        <v>91</v>
+      </c>
+      <c r="P59" s="10">
+        <f>O59/O57</f>
+        <v>0.6740740741</v>
       </c>
     </row>
     <row r="60">
       <c r="B60" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C60" s="9">
-        <f>SUM(I5:I50)</f>
-        <v>103</v>
-      </c>
-      <c r="D60" s="10">
-        <f>C60/C57</f>
-        <v>0.7410071942</v>
+        <v>143</v>
+      </c>
+      <c r="C60" s="11">
+        <f>SUMPRODUCT(G5:G54,H5:H54)/SUM(H5:H54)</f>
+        <v>4.917808219</v>
       </c>
       <c r="N60" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="O60" s="9">
-        <f>SUM(U5:U50)</f>
-        <v>75</v>
-      </c>
-      <c r="P60" s="10">
-        <f>O60/O57</f>
-        <v>0.5555555556</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="B61" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="C61" s="11">
-        <f>SUMPRODUCT(G5:G50,H5:H50)/SUM(H5:H50)</f>
-        <v>4.901639344</v>
-      </c>
-      <c r="N61" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="O61" s="11">
-        <f>SUMPRODUCT(S5:S50,T5:T50)/SUM(T5:T50)</f>
-        <v>4.84</v>
+        <v>143</v>
+      </c>
+      <c r="O60" s="11">
+        <f>SUMPRODUCT(S5:S54,T5:T54)/SUM(T5:T54)</f>
+        <v>4.862068966</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="B63" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C63">
+        <f>SUM(C5:C56)+SUM(O5:O56)-SUM(F5:F56)</f>
+        <v>222</v>
       </c>
     </row>
     <row r="64">
       <c r="B64" s="4" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C64" s="9">
-        <f>SUM(C5:C50)+SUM(O5:O50)-C60-O60-SUM(J5:J50)</f>
-        <v>72</v>
+        <f>C59+O59-SUM(J5:J54)</f>
+        <v>174</v>
       </c>
     </row>
     <row r="65">
       <c r="B65" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="C65" s="4">
-        <v>4.0</v>
+        <v>146</v>
+      </c>
+      <c r="C65" s="9">
+        <f>C63-C64</f>
+        <v>48</v>
       </c>
     </row>
     <row r="66">
       <c r="B66" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="C66" s="11">
-        <f>C64/C65</f>
-        <v>18</v>
+        <v>147</v>
+      </c>
+      <c r="C66" s="4">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="B67" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C67" s="11">
+        <f>C65/C66</f>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="M21:P21"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="L40:L41"/>
-    <mergeCell ref="L46:L49"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="L44:L45"/>
+    <mergeCell ref="L50:L53"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="M1:P1"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="M4:P4"/>
     <mergeCell ref="A11:D11"/>
     <mergeCell ref="M11:P11"/>
-    <mergeCell ref="M15:P15"/>
+    <mergeCell ref="M19:P19"/>
+    <mergeCell ref="M25:P25"/>
   </mergeCells>
-  <conditionalFormatting sqref="A18:A44">
+  <conditionalFormatting sqref="M19:M54 A32">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>E18</formula>
+      <formula>Q19</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A32:A33">
+  <conditionalFormatting sqref="A21:A47">
     <cfRule type="expression" dxfId="0" priority="2">
-      <formula>E31</formula>
+      <formula>E21</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A5:A14 A45:A50">
+  <conditionalFormatting sqref="A5:A14 A48:A50">
     <cfRule type="expression" dxfId="0" priority="3">
       <formula>E5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M5:M50">
+  <conditionalFormatting sqref="M5:M14">
     <cfRule type="expression" dxfId="0" priority="4">
       <formula>Q5</formula>
     </cfRule>
@@ -3771,7 +3993,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B1" s="4">
         <v>5.0</v>
@@ -3779,7 +4001,7 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B2" s="4">
         <v>5.0</v>
@@ -3787,7 +4009,7 @@
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B3" s="4">
         <v>4.5</v>
@@ -3795,7 +4017,7 @@
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B4" s="4">
         <v>4.0</v>
@@ -3803,7 +4025,7 @@
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B5" s="4">
         <v>3.5</v>
@@ -3811,7 +4033,7 @@
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B6" s="4">
         <v>3.0</v>
@@ -3819,7 +4041,7 @@
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B7" s="4">
         <v>2.5</v>
@@ -3827,7 +4049,7 @@
     </row>
     <row r="8">
       <c r="A8" s="4" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B8" s="4">
         <v>2.0</v>
@@ -3835,7 +4057,7 @@
     </row>
     <row r="9">
       <c r="A9" s="4" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B9" s="4">
         <v>1.5</v>
@@ -3843,7 +4065,7 @@
     </row>
     <row r="10">
       <c r="A10" s="4" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B10" s="4">
         <v>1.0</v>

--- a/_myscripts/Graduation Requirements.xlsx
+++ b/_myscripts/Graduation Requirements.xlsx
@@ -11,60 +11,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author/>
-  </authors>
-  <commentList>
-    <comment authorId="0" ref="M53">
-      <text>
-        <t xml:space="preserve">MA3236 or MA3252, S2
-	-Lim Li</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="M52">
-      <text>
-        <t xml:space="preserve">S1
-	-Lim Li</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="M51">
-      <text>
-        <t xml:space="preserve">MA3233, S1
-	-Lim Li</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="M50">
-      <text>
-        <t xml:space="preserve">MA3236, S2
-	-Lim Li</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="M45">
-      <text>
-        <t xml:space="preserve">S1
-	-Lim Li</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="M46">
-      <text>
-        <t xml:space="preserve">S1
-	-Lim Li</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="M54">
-      <text>
-        <t xml:space="preserve">S1
-	-Lim Li</t>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="161">
   <si>
     <t>Bachelor of Computing (Honours) in Computer Science</t>
   </si>
@@ -84,6 +32,9 @@
     <t>Grade</t>
   </si>
   <si>
+    <t>Notes:</t>
+  </si>
+  <si>
     <t>(1) University Level Requirements (20 MCs)</t>
   </si>
   <si>
@@ -108,9 +59,24 @@
     <t>University Level Requirements (20 MCs)</t>
   </si>
   <si>
+    <t xml:space="preserve">CS4236 </t>
+  </si>
+  <si>
+    <t>Cryptography Theory and Practice</t>
+  </si>
+  <si>
+    <t>sem1</t>
+  </si>
+  <si>
     <t>GEH</t>
   </si>
   <si>
+    <t>CS4232</t>
+  </si>
+  <si>
+    <t>Theory of Computation</t>
+  </si>
+  <si>
     <t>GET1004</t>
   </si>
   <si>
@@ -300,19 +266,16 @@
     <t>Parallel and Distributed Algorithms</t>
   </si>
   <si>
-    <t>CS4232</t>
-  </si>
-  <si>
-    <t>Theory of Computation</t>
-  </si>
-  <si>
     <t>CS3233</t>
   </si>
   <si>
     <t>Level-2000</t>
   </si>
   <si>
-    <t>CS4</t>
+    <t>CS5330</t>
+  </si>
+  <si>
+    <t>Randomized Algorithms</t>
   </si>
   <si>
     <t>MA2101S</t>
@@ -438,12 +401,6 @@
     <t>III, IV</t>
   </si>
   <si>
-    <t xml:space="preserve">CS4236 </t>
-  </si>
-  <si>
-    <t>Cryptography Theory and Practice</t>
-  </si>
-  <si>
     <t>ST2132</t>
   </si>
   <si>
@@ -465,10 +422,10 @@
     <t>Game Theory</t>
   </si>
   <si>
-    <t>MA4235</t>
-  </si>
-  <si>
-    <t>Topics in Graph Theory</t>
+    <t>MA4229</t>
+  </si>
+  <si>
+    <t>Approximation Theory</t>
   </si>
   <si>
     <t>MA4270</t>
@@ -484,6 +441,12 @@
   </si>
   <si>
     <t>IV</t>
+  </si>
+  <si>
+    <t>MA4207</t>
+  </si>
+  <si>
+    <t>Mathematical Logic</t>
   </si>
   <si>
     <t>Total MCs:</t>
@@ -551,10 +514,10 @@
     <font>
       <u/>
     </font>
+    <font/>
     <font>
       <b/>
     </font>
-    <font/>
   </fonts>
   <fills count="2">
     <fill>
@@ -586,19 +549,19 @@
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="1" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="10" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="2" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="1" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="10" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="2" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -647,7 +610,7 @@
     <col customWidth="1" hidden="1" min="9" max="9" width="8.71"/>
     <col customWidth="1" hidden="1" min="10" max="10" width="14.43"/>
     <col customWidth="1" min="12" max="12" width="7.57"/>
-    <col customWidth="1" min="14" max="14" width="34.86"/>
+    <col customWidth="1" min="14" max="14" width="35.71"/>
     <col customWidth="1" min="15" max="15" width="10.0"/>
     <col customWidth="1" min="16" max="16" width="10.71"/>
     <col customWidth="1" hidden="1" min="17" max="17" width="6.86"/>
@@ -696,53 +659,65 @@
       <c r="P3" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="X3" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="4" t="s">
+      <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="F4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="G4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="H4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="I4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="J4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="Q4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="R4" s="4" t="s">
+      <c r="M4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S4" s="4" t="s">
+      <c r="R4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="T4" s="4" t="s">
+      <c r="S4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="U4" s="4" t="s">
+      <c r="T4" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="U4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="X4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z4" s="3" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="4">
+      <c r="A5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="3">
         <v>4.0</v>
       </c>
       <c r="E5" t="b">
@@ -769,10 +744,10 @@
         <f t="shared" ref="J5:J54" si="5">IF(E5,I5,0)</f>
         <v>0</v>
       </c>
-      <c r="M5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="O5" s="4">
+      <c r="M5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="O5" s="3">
         <v>4.0</v>
       </c>
       <c r="Q5" t="b">
@@ -795,19 +770,28 @@
         <f t="shared" ref="U5:U54" si="9">IF(ISTEXT(P5),O5,0)</f>
         <v>0</v>
       </c>
+      <c r="X5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z5" s="3" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="4">
-        <v>4.0</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>17</v>
+      <c r="A6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="E6" t="b">
         <f t="shared" si="1"/>
@@ -833,17 +817,17 @@
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="M6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="N6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="O6" s="4">
-        <v>4.0</v>
-      </c>
-      <c r="P6" s="4" t="s">
-        <v>17</v>
+      <c r="M6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="O6" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="Q6" t="b">
         <f t="shared" si="6"/>
@@ -867,17 +851,17 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="4">
-        <v>4.0</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>17</v>
+      <c r="A7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="E7" t="b">
         <f t="shared" si="1"/>
@@ -903,17 +887,17 @@
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="M7" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="N7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="O7" s="4">
-        <v>4.0</v>
-      </c>
-      <c r="P7" s="4" t="s">
-        <v>17</v>
+      <c r="M7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O7" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="Q7" t="b">
         <f t="shared" si="6"/>
@@ -937,17 +921,17 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="4">
-        <v>4.0</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>22</v>
+      <c r="A8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="E8" t="b">
         <f t="shared" si="1"/>
@@ -973,17 +957,17 @@
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="M8" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="N8" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="O8" s="4">
-        <v>4.0</v>
-      </c>
-      <c r="P8" s="4" t="s">
-        <v>22</v>
+      <c r="M8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="O8" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="Q8" t="b">
         <f t="shared" si="6"/>
@@ -1007,17 +991,17 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="4">
-        <v>4.0</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>25</v>
+      <c r="A9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="E9" t="b">
         <f t="shared" si="1"/>
@@ -1043,17 +1027,17 @@
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="M9" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="N9" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="O9" s="4">
-        <v>4.0</v>
-      </c>
-      <c r="P9" s="4" t="s">
-        <v>25</v>
+      <c r="M9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="O9" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="Q9" t="b">
         <f t="shared" si="6"/>
@@ -1123,8 +1107,8 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="3" t="s">
-        <v>26</v>
+      <c r="A11" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="E11" t="b">
         <f t="shared" si="1"/>
@@ -1150,8 +1134,8 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="M11" s="3" t="s">
-        <v>27</v>
+      <c r="M11" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="Q11" t="b">
         <f t="shared" si="6"/>
@@ -1175,17 +1159,17 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="4">
+      <c r="A12" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="3">
         <v>1.0</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>30</v>
+      <c r="D12" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="E12" t="b">
         <f t="shared" si="1"/>
@@ -1211,17 +1195,17 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="M12" s="4" t="s">
+      <c r="M12" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="O12" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="P12" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="N12" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="O12" s="4">
-        <v>4.0</v>
-      </c>
-      <c r="P12" s="4" t="s">
-        <v>25</v>
       </c>
       <c r="Q12" t="b">
         <f t="shared" si="6"/>
@@ -1245,17 +1229,17 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" s="4">
-        <v>4.0</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>17</v>
+      <c r="A13" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="E13" t="b">
         <f t="shared" si="1"/>
@@ -1281,17 +1265,17 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="M13" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="N13" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="O13" s="4">
-        <v>4.0</v>
-      </c>
-      <c r="P13" s="4" t="s">
-        <v>17</v>
+      <c r="M13" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="O13" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="P13" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="Q13" t="b">
         <f t="shared" si="6"/>
@@ -1315,17 +1299,17 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" s="4">
+      <c r="A14" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="3">
         <v>6.0</v>
       </c>
-      <c r="D14" s="4" t="s">
-        <v>22</v>
+      <c r="D14" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="E14" t="b">
         <f t="shared" si="1"/>
@@ -1351,17 +1335,17 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="M14" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="N14" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="O14" s="4">
-        <v>4.0</v>
-      </c>
-      <c r="P14" s="4" t="s">
-        <v>17</v>
+      <c r="M14" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="O14" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="Q14" t="b">
         <f t="shared" si="6"/>
@@ -1385,17 +1369,17 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" s="4">
-        <v>4.0</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>30</v>
+      <c r="A15" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="E15" t="b">
         <f t="shared" si="1"/>
@@ -1581,8 +1565,8 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="3" t="s">
-        <v>43</v>
+      <c r="A19" s="4" t="s">
+        <v>49</v>
       </c>
       <c r="E19" t="b">
         <f t="shared" si="1"/>
@@ -1608,8 +1592,8 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="M19" s="3" t="s">
-        <v>44</v>
+      <c r="M19" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="Q19" t="b">
         <f t="shared" si="6"/>
@@ -1633,11 +1617,11 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
+      <c r="A20" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
       <c r="E20" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -1662,8 +1646,8 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="M20" s="4" t="s">
-        <v>46</v>
+      <c r="M20" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="O20" s="5">
         <v>4.0</v>
@@ -1690,17 +1674,17 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C21" s="4">
-        <v>4.0</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>49</v>
+      <c r="A21" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="E21" t="b">
         <f t="shared" si="1"/>
@@ -1726,17 +1710,17 @@
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="M21" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="N21" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="O21" s="4">
-        <v>4.0</v>
-      </c>
-      <c r="P21" s="4" t="s">
-        <v>30</v>
+      <c r="M21" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="O21" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="Q21" t="b">
         <f t="shared" si="6"/>
@@ -1760,17 +1744,17 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C22" s="4">
-        <v>4.0</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>30</v>
+      <c r="A22" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="E22" t="b">
         <f t="shared" si="1"/>
@@ -1818,17 +1802,17 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C23" s="4">
-        <v>4.0</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>30</v>
+      <c r="A23" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="E23" t="b">
         <f t="shared" si="1"/>
@@ -1854,8 +1838,8 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="M23" s="4"/>
-      <c r="O23" s="4"/>
+      <c r="M23" s="3"/>
+      <c r="O23" s="3"/>
       <c r="Q23" t="b">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -1878,17 +1862,17 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C24" s="4">
-        <v>4.0</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>49</v>
+      <c r="A24" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="E24" t="b">
         <f t="shared" si="1"/>
@@ -1936,17 +1920,17 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C25" s="4">
-        <v>4.0</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>30</v>
+      <c r="A25" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C25" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="E25" t="b">
         <f t="shared" si="1"/>
@@ -1972,8 +1956,8 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="M25" s="3" t="s">
-        <v>60</v>
+      <c r="M25" s="4" t="s">
+        <v>66</v>
       </c>
       <c r="Q25" t="b">
         <f t="shared" si="6"/>
@@ -1997,17 +1981,17 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C26" s="4">
-        <v>4.0</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>25</v>
+      <c r="A26" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C26" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="E26" t="b">
         <f t="shared" si="1"/>
@@ -2055,17 +2039,17 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C27" s="4">
-        <v>4.0</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>25</v>
+      <c r="A27" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C27" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="E27" t="b">
         <f t="shared" si="1"/>
@@ -2091,8 +2075,8 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>65</v>
+      <c r="M27" s="4" t="s">
+        <v>71</v>
       </c>
       <c r="O27" s="6"/>
       <c r="Q27" t="b">
@@ -2117,17 +2101,17 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C28" s="4">
-        <v>4.0</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>68</v>
+      <c r="A28" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C28" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="E28" t="b">
         <f t="shared" si="1"/>
@@ -2153,17 +2137,17 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="M28" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="N28" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="O28" s="4">
-        <v>4.0</v>
-      </c>
-      <c r="P28" s="4" t="s">
-        <v>30</v>
+      <c r="M28" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="N28" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O28" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="P28" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="Q28" t="b">
         <f t="shared" si="6"/>
@@ -2187,25 +2171,25 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C29" s="4">
-        <v>4.0</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>30</v>
+      <c r="A29" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C29" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="E29" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F29">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G29">
         <f>IFNA(INDIRECT(CONCAT("Sheet2!B",MATCH(D29,Sheet2!A:A,0))),0)</f>
@@ -2221,19 +2205,19 @@
       </c>
       <c r="J29">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="M29" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="N29" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="O29" s="4">
-        <v>4.0</v>
-      </c>
-      <c r="P29" s="4" t="s">
-        <v>49</v>
+        <v>4</v>
+      </c>
+      <c r="M29" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="N29" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="O29" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="P29" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="Q29" t="b">
         <f t="shared" si="6"/>
@@ -2257,8 +2241,8 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="3" t="s">
-        <v>73</v>
+      <c r="A30" s="4" t="s">
+        <v>79</v>
       </c>
       <c r="C30" s="6"/>
       <c r="E30" t="b">
@@ -2285,17 +2269,17 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="M30" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="N30" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="O30" s="4">
-        <v>4.0</v>
-      </c>
-      <c r="P30" s="4" t="s">
-        <v>30</v>
+      <c r="M30" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="N30" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="O30" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="P30" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="Q30" t="b">
         <f t="shared" si="6"/>
@@ -2319,17 +2303,17 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C31" s="4">
-        <v>4.0</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>30</v>
+      <c r="A31" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C31" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="E31" t="b">
         <f t="shared" si="1"/>
@@ -2355,17 +2339,17 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="M31" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="N31" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="O31" s="4">
-        <v>4.0</v>
-      </c>
-      <c r="P31" s="4" t="s">
-        <v>49</v>
+      <c r="M31" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="N31" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="O31" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="P31" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="Q31" t="b">
         <f t="shared" si="6"/>
@@ -2390,21 +2374,21 @@
     </row>
     <row r="32">
       <c r="A32" s="5" t="s">
-        <v>78</v>
+        <v>19</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="C32" s="4">
+        <v>20</v>
+      </c>
+      <c r="C32" s="3">
         <v>4.0</v>
       </c>
       <c r="E32" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F32">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G32">
         <f>IFNA(INDIRECT(CONCAT("Sheet2!B",MATCH(D32,Sheet2!A:A,0))),0)</f>
@@ -2444,17 +2428,17 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C33" s="4">
-        <v>4.0</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>30</v>
+      <c r="A33" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C33" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="E33" t="b">
         <f t="shared" si="1"/>
@@ -2480,8 +2464,8 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>81</v>
+      <c r="M33" s="4" t="s">
+        <v>85</v>
       </c>
       <c r="O33" s="6"/>
       <c r="Q33" t="b">
@@ -2506,11 +2490,17 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="C34" s="4">
-        <v>4.0</v>
+      <c r="A34" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C34" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="E34" t="b">
         <f t="shared" si="1"/>
@@ -2522,31 +2512,31 @@
       </c>
       <c r="G34">
         <f>IFNA(INDIRECT(CONCAT("Sheet2!B",MATCH(D34,Sheet2!A:A,0))),0)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H34">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I34">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J34">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="M34" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="N34" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="O34" s="4">
+      <c r="M34" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="N34" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="O34" s="3">
         <v>5.0</v>
       </c>
-      <c r="P34" s="4" t="s">
-        <v>17</v>
+      <c r="P34" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="Q34" t="b">
         <f t="shared" si="6"/>
@@ -2570,17 +2560,17 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C35" s="4">
-        <v>4.0</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>30</v>
+      <c r="A35" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C35" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="E35" t="b">
         <f t="shared" si="1"/>
@@ -2606,17 +2596,17 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="M35" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="N35" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="O35" s="4">
-        <v>4.0</v>
-      </c>
-      <c r="P35" s="4" t="s">
-        <v>25</v>
+      <c r="M35" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="N35" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="O35" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="P35" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="Q35" t="b">
         <f t="shared" si="6"/>
@@ -2640,17 +2630,17 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="C36" s="4">
-        <v>4.0</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>68</v>
+      <c r="A36" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C36" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="E36" t="b">
         <f t="shared" si="1"/>
@@ -2676,17 +2666,17 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="M36" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="N36" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="O36" s="4">
+      <c r="M36" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="N36" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="O36" s="3">
         <v>5.0</v>
       </c>
-      <c r="P36" s="4" t="s">
-        <v>68</v>
+      <c r="P36" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="Q36" t="b">
         <f t="shared" si="6"/>
@@ -2710,17 +2700,17 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="C37" s="4">
+      <c r="A37" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C37" s="3">
         <v>8.0</v>
       </c>
-      <c r="D37" s="4" t="s">
-        <v>68</v>
+      <c r="D37" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="E37" t="b">
         <f t="shared" si="1"/>
@@ -2746,17 +2736,17 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="M37" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="N37" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="O37" s="4">
-        <v>4.0</v>
-      </c>
-      <c r="P37" s="4" t="s">
-        <v>25</v>
+      <c r="M37" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="N37" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="O37" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="P37" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="Q37" t="b">
         <f t="shared" si="6"/>
@@ -2780,13 +2770,13 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="C38" s="4">
+      <c r="A38" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C38" s="3">
         <v>12.0</v>
       </c>
       <c r="E38" t="b">
@@ -2814,16 +2804,16 @@
         <v>0</v>
       </c>
       <c r="M38" s="5" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="N38" s="5" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="O38" s="5">
         <v>4.0</v>
       </c>
       <c r="P38" s="5" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="Q38" t="b">
         <f t="shared" si="6"/>
@@ -2847,8 +2837,8 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="3" t="s">
-        <v>101</v>
+      <c r="A39" s="4" t="s">
+        <v>106</v>
       </c>
       <c r="C39" s="6"/>
       <c r="E39" t="b">
@@ -2875,20 +2865,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L39" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="M39" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="N39" s="4" t="s">
-        <v>104</v>
+      <c r="L39" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="M39" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="N39" s="3" t="s">
+        <v>109</v>
       </c>
       <c r="O39" s="5">
         <v>4.0</v>
       </c>
-      <c r="P39" s="4" t="s">
-        <v>30</v>
+      <c r="P39" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="Q39" t="b">
         <f t="shared" si="6"/>
@@ -2912,17 +2902,17 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C40" s="4">
-        <v>4.0</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>17</v>
+      <c r="A40" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C40" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="E40" t="b">
         <f t="shared" si="1"/>
@@ -2970,17 +2960,17 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="C41" s="4">
-        <v>4.0</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>17</v>
+      <c r="A41" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C41" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="E41" t="b">
         <f t="shared" si="1"/>
@@ -3006,8 +2996,8 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>109</v>
+      <c r="M41" s="4" t="s">
+        <v>114</v>
       </c>
       <c r="Q41" t="b">
         <f t="shared" si="6"/>
@@ -3031,17 +3021,17 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="C42" s="4">
-        <v>4.0</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>17</v>
+      <c r="A42" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C42" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="E42" t="b">
         <f t="shared" si="1"/>
@@ -3067,20 +3057,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K42" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="M42" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="N42" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="O42" s="4">
+      <c r="K42" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="M42" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="N42" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="O42" s="3">
         <v>5.0</v>
       </c>
-      <c r="P42" s="4" t="s">
-        <v>30</v>
+      <c r="P42" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="Q42" t="b">
         <f t="shared" si="6"/>
@@ -3104,8 +3094,8 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="3" t="s">
-        <v>115</v>
+      <c r="A43" s="4" t="s">
+        <v>120</v>
       </c>
       <c r="C43" s="6"/>
       <c r="E43" t="b">
@@ -3133,14 +3123,17 @@
         <v>0</v>
       </c>
       <c r="L43" s="7"/>
-      <c r="M43" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="N43" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="O43" s="4">
-        <v>4.0</v>
+      <c r="M43" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="N43" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="O43" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="P43" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="Q43" t="b">
         <f t="shared" si="6"/>
@@ -3152,29 +3145,29 @@
       </c>
       <c r="S43">
         <f>IFNA(INDIRECT(CONCAT("Sheet2!B",MATCH(P43,Sheet2!A:A,0))),0)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T43">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U43">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C44" s="4">
-        <v>4.0</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>30</v>
+      <c r="A44" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C44" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="E44" t="b">
         <f t="shared" si="1"/>
@@ -3201,19 +3194,19 @@
         <v>4</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="M44" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="N44" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="O44" s="4">
-        <v>4.0</v>
-      </c>
-      <c r="P44" s="4" t="s">
-        <v>30</v>
+        <v>123</v>
+      </c>
+      <c r="M44" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="N44" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="O44" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="P44" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="Q44" t="b">
         <f t="shared" si="6"/>
@@ -3237,17 +3230,17 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C45" s="4">
-        <v>4.0</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>49</v>
+      <c r="A45" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C45" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="E45" t="b">
         <f t="shared" si="1"/>
@@ -3273,17 +3266,17 @@
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="M45" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="N45" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="O45" s="4">
-        <v>4.0</v>
-      </c>
-      <c r="P45" s="4" t="s">
-        <v>68</v>
+      <c r="M45" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="N45" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="O45" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="P45" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="Q45" t="b">
         <f t="shared" si="6"/>
@@ -3307,17 +3300,17 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="C46" s="4">
-        <v>4.0</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>68</v>
+      <c r="A46" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C46" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="E46" t="b">
         <f t="shared" si="1"/>
@@ -3344,50 +3337,53 @@
         <v>4</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="M46" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="N46" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="O46" s="4">
-        <v>4.0</v>
+        <v>128</v>
+      </c>
+      <c r="M46" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="N46" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="O46" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="P46" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="Q46" t="b">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R46">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S46">
         <f>IFNA(INDIRECT(CONCAT("Sheet2!B",MATCH(P46,Sheet2!A:A,0))),0)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T46">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U46">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C47" s="4">
-        <v>4.0</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>68</v>
+      <c r="A47" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C47" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="E47" t="b">
         <f t="shared" si="1"/>
@@ -3459,8 +3455,8 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>128</v>
+      <c r="M48" s="4" t="s">
+        <v>131</v>
       </c>
       <c r="Q48" t="b">
         <f t="shared" si="6"/>
@@ -3508,13 +3504,13 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="M49" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="N49" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="O49" s="4">
+      <c r="M49" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="N49" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="O49" s="3">
         <v>12.0</v>
       </c>
       <c r="Q49" t="b">
@@ -3564,16 +3560,19 @@
         <v>0</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="M50" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="N50" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="O50" s="4">
-        <v>4.0</v>
+        <v>133</v>
+      </c>
+      <c r="M50" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="N50" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="O50" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="P50" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="Q50" t="b">
         <f t="shared" si="6"/>
@@ -3585,15 +3584,15 @@
       </c>
       <c r="S50">
         <f>IFNA(INDIRECT(CONCAT("Sheet2!B",MATCH(P50,Sheet2!A:A,0))),0)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T50">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U50">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51">
@@ -3621,14 +3620,17 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="M51" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="N51" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="O51" s="4">
-        <v>4.0</v>
+      <c r="M51" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="N51" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="O51" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="P51" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="Q51" t="b">
         <f t="shared" si="6"/>
@@ -3640,15 +3642,15 @@
       </c>
       <c r="S51">
         <f>IFNA(INDIRECT(CONCAT("Sheet2!B",MATCH(P51,Sheet2!A:A,0))),0)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T51">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U51">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="52">
@@ -3676,17 +3678,17 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="M52" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="N52" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="O52" s="4">
-        <v>4.0</v>
-      </c>
-      <c r="P52" s="4" t="s">
-        <v>30</v>
+      <c r="M52" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="N52" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="O52" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="P52" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="Q52" t="b">
         <f t="shared" si="6"/>
@@ -3734,14 +3736,17 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="M53" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="N53" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="O53" s="4">
-        <v>4.0</v>
+      <c r="M53" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="N53" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="O53" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="P53" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="Q53" t="b">
         <f t="shared" si="6"/>
@@ -3753,15 +3758,15 @@
       </c>
       <c r="S53">
         <f>IFNA(INDIRECT(CONCAT("Sheet2!B",MATCH(P53,Sheet2!A:A,0))),0)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T53">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U53">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="54">
@@ -3790,48 +3795,51 @@
         <v>0</v>
       </c>
       <c r="L54" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="M54" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="N54" s="5" t="s">
-        <v>79</v>
+        <v>142</v>
+      </c>
+      <c r="M54" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="N54" s="3" t="s">
+        <v>144</v>
       </c>
       <c r="O54" s="5">
         <v>4.0</v>
       </c>
+      <c r="P54" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="Q54" t="b">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R54">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="S54">
         <f>IFNA(INDIRECT(CONCAT("Sheet2!B",MATCH(P54,Sheet2!A:A,0))),0)</f>
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="T54">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U54">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="57">
-      <c r="B57" s="4" t="s">
-        <v>140</v>
+      <c r="B57" s="3" t="s">
+        <v>145</v>
       </c>
       <c r="C57">
         <f>SUM(C5:C54)</f>
         <v>143</v>
       </c>
-      <c r="N57" s="4" t="s">
-        <v>140</v>
+      <c r="N57" s="3" t="s">
+        <v>145</v>
       </c>
       <c r="O57">
         <f>SUM(O5:O54)</f>
@@ -3839,15 +3847,15 @@
       </c>
     </row>
     <row r="58">
-      <c r="B58" s="4" t="s">
-        <v>141</v>
+      <c r="B58" s="3" t="s">
+        <v>146</v>
       </c>
       <c r="C58">
         <f>SUM(C19:C54)</f>
         <v>108</v>
       </c>
-      <c r="N58" s="4" t="s">
-        <v>141</v>
+      <c r="N58" s="3" t="s">
+        <v>146</v>
       </c>
       <c r="O58">
         <f>SUM(O19:O54)</f>
@@ -3855,48 +3863,48 @@
       </c>
     </row>
     <row r="59">
-      <c r="B59" s="4" t="s">
-        <v>142</v>
+      <c r="B59" s="3" t="s">
+        <v>147</v>
       </c>
       <c r="C59" s="9">
         <f>SUM(I5:I54)</f>
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="D59" s="10">
         <f>C59/C57</f>
-        <v>0.8321678322</v>
-      </c>
-      <c r="N59" s="4" t="s">
-        <v>142</v>
+        <v>0.8601398601</v>
+      </c>
+      <c r="N59" s="3" t="s">
+        <v>147</v>
       </c>
       <c r="O59" s="9">
         <f>SUM(U5:U54)</f>
-        <v>91</v>
+        <v>115</v>
       </c>
       <c r="P59" s="10">
         <f>O59/O57</f>
-        <v>0.6740740741</v>
+        <v>0.8518518519</v>
       </c>
     </row>
     <row r="60">
-      <c r="B60" s="4" t="s">
-        <v>143</v>
+      <c r="B60" s="3" t="s">
+        <v>148</v>
       </c>
       <c r="C60" s="11">
         <f>SUMPRODUCT(G5:G54,H5:H54)/SUM(H5:H54)</f>
-        <v>4.917808219</v>
-      </c>
-      <c r="N60" s="4" t="s">
-        <v>143</v>
+        <v>4.922077922</v>
+      </c>
+      <c r="N60" s="3" t="s">
+        <v>148</v>
       </c>
       <c r="O60" s="11">
         <f>SUMPRODUCT(S5:S54,T5:T54)/SUM(T5:T54)</f>
-        <v>4.862068966</v>
+        <v>4.87804878</v>
       </c>
     </row>
     <row r="63">
-      <c r="B63" s="4" t="s">
-        <v>144</v>
+      <c r="B63" s="3" t="s">
+        <v>149</v>
       </c>
       <c r="C63">
         <f>SUM(C5:C56)+SUM(O5:O56)-SUM(F5:F56)</f>
@@ -3904,38 +3912,38 @@
       </c>
     </row>
     <row r="64">
-      <c r="B64" s="4" t="s">
-        <v>145</v>
+      <c r="B64" s="3" t="s">
+        <v>150</v>
       </c>
       <c r="C64" s="9">
         <f>C59+O59-SUM(J5:J54)</f>
-        <v>174</v>
+        <v>198</v>
       </c>
     </row>
     <row r="65">
-      <c r="B65" s="4" t="s">
-        <v>146</v>
+      <c r="B65" s="3" t="s">
+        <v>151</v>
       </c>
       <c r="C65" s="9">
         <f>C63-C64</f>
-        <v>48</v>
+        <v>24</v>
       </c>
     </row>
     <row r="66">
-      <c r="B66" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="C66" s="4">
+      <c r="B66" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C66" s="3">
         <v>3.0</v>
       </c>
     </row>
     <row r="67">
-      <c r="B67" s="4" t="s">
-        <v>148</v>
+      <c r="B67" s="3" t="s">
+        <v>153</v>
       </c>
       <c r="C67" s="11">
         <f>C65/C66</f>
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -3956,28 +3964,32 @@
     <mergeCell ref="M19:P19"/>
     <mergeCell ref="M25:P25"/>
   </mergeCells>
-  <conditionalFormatting sqref="M19:M54 A32">
+  <conditionalFormatting sqref="X4">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>Q19</formula>
+      <formula>Q68</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X8 M19:M54 A32">
+    <cfRule type="expression" dxfId="0" priority="2">
+      <formula>AB8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:A47">
-    <cfRule type="expression" dxfId="0" priority="2">
+    <cfRule type="expression" dxfId="0" priority="3">
       <formula>E21</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:A14 A48:A50">
-    <cfRule type="expression" dxfId="0" priority="3">
+    <cfRule type="expression" dxfId="0" priority="4">
       <formula>E5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M5:M14">
-    <cfRule type="expression" dxfId="0" priority="4">
+    <cfRule type="expression" dxfId="0" priority="5">
       <formula>Q5</formula>
     </cfRule>
   </conditionalFormatting>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3992,82 +4004,82 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B1" s="4">
+      <c r="A1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="3">
         <v>5.0</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="B2" s="4">
+      <c r="A2" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="3">
         <v>5.0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="4">
+      <c r="A3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="3">
         <v>4.5</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="B4" s="4">
+      <c r="A4" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B4" s="3">
         <v>4.0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="B5" s="4">
+      <c r="A5" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B5" s="3">
         <v>3.5</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="B6" s="4">
+      <c r="A6" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B6" s="3">
         <v>3.0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="B7" s="4">
+      <c r="A7" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B7" s="3">
         <v>2.5</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="B8" s="4">
+      <c r="A8" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B8" s="3">
         <v>2.0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="B9" s="4">
+      <c r="A9" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B9" s="3">
         <v>1.5</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="B10" s="4">
+      <c r="A10" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B10" s="3">
         <v>1.0</v>
       </c>
     </row>

--- a/_myscripts/Graduation Requirements.xlsx
+++ b/_myscripts/Graduation Requirements.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="168">
   <si>
     <t>Bachelor of Computing (Honours) in Computer Science</t>
   </si>
@@ -68,7 +68,13 @@
     <t>sem1</t>
   </si>
   <si>
-    <t>GEH</t>
+    <t>GEH1034</t>
+  </si>
+  <si>
+    <t>Clean Energy and Storage</t>
+  </si>
+  <si>
+    <t>A+</t>
   </si>
   <si>
     <t>CS4232</t>
@@ -122,9 +128,6 @@
     <t>Competitive Programming</t>
   </si>
   <si>
-    <t>A+</t>
-  </si>
-  <si>
     <t>LAJ1201</t>
   </si>
   <si>
@@ -161,6 +164,18 @@
     <t>Introduction to Information Security</t>
   </si>
   <si>
+    <t>CS5234</t>
+  </si>
+  <si>
+    <t>Algorithms at Scale</t>
+  </si>
+  <si>
+    <t>YSC4230</t>
+  </si>
+  <si>
+    <t>Programming Language Design and Implementation</t>
+  </si>
+  <si>
     <t>(3) Programme Requirements (108 MCs)</t>
   </si>
   <si>
@@ -170,7 +185,10 @@
     <t>Computer Science Foundation</t>
   </si>
   <si>
-    <t>CM/LSM/etc</t>
+    <t>LSM1301</t>
+  </si>
+  <si>
+    <t>General Biology</t>
   </si>
   <si>
     <t>CS1010</t>
@@ -266,6 +284,12 @@
     <t>Parallel and Distributed Algorithms</t>
   </si>
   <si>
+    <t>CS4234</t>
+  </si>
+  <si>
+    <t>Optimisation Algorithms</t>
+  </si>
+  <si>
     <t>CS3233</t>
   </si>
   <si>
@@ -320,10 +344,10 @@
     <t>Numerical Analysis I</t>
   </si>
   <si>
-    <t>PROJECT</t>
-  </si>
-  <si>
-    <t>CP4101 B.Comp. Dissertation</t>
+    <t>XFC4101</t>
+  </si>
+  <si>
+    <t>Integrated Honours Thesis</t>
   </si>
   <si>
     <t>ST2131</t>
@@ -408,9 +432,6 @@
   </si>
   <si>
     <t>Level-4000</t>
-  </si>
-  <si>
-    <t>MA4199 Honours Project in Mathematics</t>
   </si>
   <si>
     <t>AM4</t>
@@ -597,27 +618,27 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="14.86"/>
-    <col customWidth="1" min="2" max="2" width="45.43"/>
-    <col customWidth="1" min="3" max="3" width="9.86"/>
-    <col customWidth="1" min="4" max="4" width="10.43"/>
-    <col customWidth="1" hidden="1" min="5" max="5" width="6.86"/>
-    <col customWidth="1" hidden="1" min="6" max="6" width="10.14"/>
-    <col customWidth="1" hidden="1" min="7" max="7" width="9.29"/>
-    <col customWidth="1" hidden="1" min="8" max="8" width="10.0"/>
-    <col customWidth="1" hidden="1" min="9" max="9" width="8.71"/>
-    <col customWidth="1" hidden="1" min="10" max="10" width="14.43"/>
-    <col customWidth="1" min="12" max="12" width="7.57"/>
-    <col customWidth="1" min="14" max="14" width="35.71"/>
-    <col customWidth="1" min="15" max="15" width="10.0"/>
-    <col customWidth="1" min="16" max="16" width="10.71"/>
-    <col customWidth="1" hidden="1" min="17" max="17" width="6.86"/>
-    <col customWidth="1" hidden="1" min="18" max="18" width="7.86"/>
-    <col customWidth="1" hidden="1" min="19" max="19" width="7.29"/>
-    <col customWidth="1" hidden="1" min="20" max="20" width="10.0"/>
-    <col customWidth="1" hidden="1" min="21" max="21" width="8.71"/>
+    <col customWidth="1" min="1" max="1" width="13.0"/>
+    <col customWidth="1" min="2" max="2" width="39.75"/>
+    <col customWidth="1" min="3" max="3" width="8.63"/>
+    <col customWidth="1" min="4" max="4" width="9.13"/>
+    <col customWidth="1" hidden="1" min="5" max="5" width="6.0"/>
+    <col customWidth="1" hidden="1" min="6" max="6" width="8.88"/>
+    <col customWidth="1" hidden="1" min="7" max="7" width="8.13"/>
+    <col customWidth="1" hidden="1" min="8" max="8" width="8.75"/>
+    <col customWidth="1" hidden="1" min="9" max="9" width="7.63"/>
+    <col customWidth="1" hidden="1" min="10" max="10" width="12.63"/>
+    <col customWidth="1" min="12" max="12" width="6.63"/>
+    <col customWidth="1" min="14" max="14" width="31.25"/>
+    <col customWidth="1" min="15" max="15" width="8.75"/>
+    <col customWidth="1" min="16" max="16" width="9.38"/>
+    <col customWidth="1" hidden="1" min="17" max="17" width="6.0"/>
+    <col customWidth="1" hidden="1" min="18" max="18" width="6.88"/>
+    <col customWidth="1" hidden="1" min="19" max="19" width="6.38"/>
+    <col customWidth="1" hidden="1" min="20" max="20" width="8.75"/>
+    <col customWidth="1" hidden="1" min="21" max="21" width="7.63"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -717,8 +738,14 @@
       <c r="A5" s="3" t="s">
         <v>18</v>
       </c>
+      <c r="B5" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="C5" s="3">
         <v>4.0</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="E5" t="b">
         <f t="shared" ref="E5:E54" si="1">NOT(ISNA(MATCH(A5,M:M,0)))</f>
@@ -730,25 +757,31 @@
       </c>
       <c r="G5">
         <f>IFNA(INDIRECT(CONCAT("Sheet2!B",MATCH(D5,Sheet2!A:A,0))),0)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H5">
         <f t="shared" ref="H5:H54" si="3">IF(G5&gt;0,C5,0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I5">
         <f t="shared" ref="I5:I54" si="4">IF(ISTEXT(D5),C5,0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J5">
         <f t="shared" ref="J5:J54" si="5">IF(E5,I5,0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M5" s="3" t="s">
         <v>18</v>
       </c>
+      <c r="N5" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="O5" s="3">
         <v>4.0</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="Q5" t="b">
         <f t="shared" ref="Q5:Q54" si="6">NOT(ISNA(MATCH(M5,A:A,0)))</f>
@@ -760,21 +793,21 @@
       </c>
       <c r="S5">
         <f>IFNA(INDIRECT(CONCAT("Sheet2!B",MATCH(P5,Sheet2!A:A,0))),0)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T5">
         <f t="shared" ref="T5:T54" si="8">IF(S5&gt;0,O5,0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U5">
         <f t="shared" ref="U5:U54" si="9">IF(ISTEXT(P5),O5,0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="X5" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Y5" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="Z5" s="3" t="s">
         <v>17</v>
@@ -782,16 +815,16 @@
     </row>
     <row r="6">
       <c r="A6" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" s="3">
         <v>4.0</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E6" t="b">
         <f t="shared" si="1"/>
@@ -818,16 +851,16 @@
         <v>4</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="O6" s="3">
         <v>4.0</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="Q6" t="b">
         <f t="shared" si="6"/>
@@ -852,16 +885,16 @@
     </row>
     <row r="7">
       <c r="A7" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="C7" s="3">
-        <v>4.0</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>23</v>
       </c>
       <c r="E7" t="b">
         <f t="shared" si="1"/>
@@ -888,16 +921,16 @@
         <v>4</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="O7" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="P7" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="O7" s="3">
-        <v>4.0</v>
-      </c>
-      <c r="P7" s="3" t="s">
-        <v>23</v>
       </c>
       <c r="Q7" t="b">
         <f t="shared" si="6"/>
@@ -922,16 +955,16 @@
     </row>
     <row r="8">
       <c r="A8" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C8" s="3">
         <v>4.0</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E8" t="b">
         <f t="shared" si="1"/>
@@ -958,16 +991,16 @@
         <v>4</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="O8" s="3">
         <v>4.0</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q8" t="b">
         <f t="shared" si="6"/>
@@ -992,16 +1025,16 @@
     </row>
     <row r="9">
       <c r="A9" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C9" s="3">
         <v>4.0</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E9" t="b">
         <f t="shared" si="1"/>
@@ -1028,16 +1061,16 @@
         <v>4</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="O9" s="3">
         <v>4.0</v>
       </c>
       <c r="P9" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Q9" t="b">
         <f t="shared" si="6"/>
@@ -1108,7 +1141,7 @@
     </row>
     <row r="11">
       <c r="A11" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E11" t="b">
         <f t="shared" si="1"/>
@@ -1135,7 +1168,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="Q11" t="b">
         <f t="shared" si="6"/>
@@ -1160,16 +1193,16 @@
     </row>
     <row r="12">
       <c r="A12" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C12" s="3">
         <v>1.0</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="E12" t="b">
         <f t="shared" si="1"/>
@@ -1196,16 +1229,16 @@
         <v>0</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O12" s="3">
         <v>4.0</v>
       </c>
       <c r="P12" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Q12" t="b">
         <f t="shared" si="6"/>
@@ -1230,16 +1263,16 @@
     </row>
     <row r="13">
       <c r="A13" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C13" s="3">
         <v>4.0</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E13" t="b">
         <f t="shared" si="1"/>
@@ -1266,16 +1299,16 @@
         <v>0</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N13" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O13" s="3">
         <v>4.0</v>
       </c>
       <c r="P13" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="Q13" t="b">
         <f t="shared" si="6"/>
@@ -1300,16 +1333,16 @@
     </row>
     <row r="14">
       <c r="A14" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C14" s="3">
         <v>6.0</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E14" t="b">
         <f t="shared" si="1"/>
@@ -1336,16 +1369,16 @@
         <v>0</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N14" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O14" s="3">
         <v>4.0</v>
       </c>
       <c r="P14" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="Q14" t="b">
         <f t="shared" si="6"/>
@@ -1370,16 +1403,16 @@
     </row>
     <row r="15">
       <c r="A15" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C15" s="3">
         <v>4.0</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="E15" t="b">
         <f t="shared" si="1"/>
@@ -1427,6 +1460,18 @@
       </c>
     </row>
     <row r="16">
+      <c r="A16" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="E16" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -1437,15 +1482,15 @@
       </c>
       <c r="G16">
         <f>IFNA(INDIRECT(CONCAT("Sheet2!B",MATCH(D16,Sheet2!A:A,0))),0)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H16">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I16">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J16">
         <f t="shared" si="5"/>
@@ -1473,6 +1518,18 @@
       </c>
     </row>
     <row r="17">
+      <c r="A17" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="E17" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -1483,15 +1540,15 @@
       </c>
       <c r="G17">
         <f>IFNA(INDIRECT(CONCAT("Sheet2!B",MATCH(D17,Sheet2!A:A,0))),0)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H17">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I17">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J17">
         <f t="shared" si="5"/>
@@ -1566,7 +1623,7 @@
     </row>
     <row r="19">
       <c r="A19" s="4" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E19" t="b">
         <f t="shared" si="1"/>
@@ -1593,7 +1650,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="4" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="Q19" t="b">
         <f t="shared" si="6"/>
@@ -1618,7 +1675,7 @@
     </row>
     <row r="20">
       <c r="A20" s="4" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
@@ -1647,10 +1704,16 @@
         <v>0</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>52</v>
+        <v>57</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>58</v>
       </c>
       <c r="O20" s="5">
         <v>4.0</v>
+      </c>
+      <c r="P20" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="Q20" t="b">
         <f t="shared" si="6"/>
@@ -1670,21 +1733,21 @@
       </c>
       <c r="U20">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="3" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C21" s="3">
         <v>4.0</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E21" t="b">
         <f t="shared" si="1"/>
@@ -1711,16 +1774,16 @@
         <v>4</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="N21" s="3" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="O21" s="3">
         <v>4.0</v>
       </c>
       <c r="P21" s="3" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="Q21" t="b">
         <f t="shared" si="6"/>
@@ -1745,16 +1808,16 @@
     </row>
     <row r="22">
       <c r="A22" s="3" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C22" s="3">
         <v>4.0</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="E22" t="b">
         <f t="shared" si="1"/>
@@ -1803,16 +1866,16 @@
     </row>
     <row r="23">
       <c r="A23" s="3" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C23" s="3">
         <v>4.0</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="E23" t="b">
         <f t="shared" si="1"/>
@@ -1863,16 +1926,16 @@
     </row>
     <row r="24">
       <c r="A24" s="3" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C24" s="3">
         <v>4.0</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E24" t="b">
         <f t="shared" si="1"/>
@@ -1921,16 +1984,16 @@
     </row>
     <row r="25">
       <c r="A25" s="3" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="C25" s="3">
         <v>4.0</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="E25" t="b">
         <f t="shared" si="1"/>
@@ -1957,7 +2020,7 @@
         <v>0</v>
       </c>
       <c r="M25" s="4" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="Q25" t="b">
         <f t="shared" si="6"/>
@@ -1982,16 +2045,16 @@
     </row>
     <row r="26">
       <c r="A26" s="3" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C26" s="3">
         <v>4.0</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E26" t="b">
         <f t="shared" si="1"/>
@@ -2040,16 +2103,16 @@
     </row>
     <row r="27">
       <c r="A27" s="3" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C27" s="3">
         <v>4.0</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E27" t="b">
         <f t="shared" si="1"/>
@@ -2076,7 +2139,7 @@
         <v>0</v>
       </c>
       <c r="M27" s="4" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="O27" s="6"/>
       <c r="Q27" t="b">
@@ -2102,16 +2165,16 @@
     </row>
     <row r="28">
       <c r="A28" s="3" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C28" s="3">
         <v>4.0</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="E28" t="b">
         <f t="shared" si="1"/>
@@ -2138,16 +2201,16 @@
         <v>0</v>
       </c>
       <c r="M28" s="3" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="N28" s="3" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="O28" s="3">
         <v>4.0</v>
       </c>
       <c r="P28" s="3" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="Q28" t="b">
         <f t="shared" si="6"/>
@@ -2172,16 +2235,16 @@
     </row>
     <row r="29">
       <c r="A29" s="3" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C29" s="3">
         <v>4.0</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="E29" t="b">
         <f t="shared" si="1"/>
@@ -2208,16 +2271,16 @@
         <v>4</v>
       </c>
       <c r="M29" s="3" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="N29" s="3" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="O29" s="3">
         <v>4.0</v>
       </c>
       <c r="P29" s="3" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="Q29" t="b">
         <f t="shared" si="6"/>
@@ -2242,7 +2305,7 @@
     </row>
     <row r="30">
       <c r="A30" s="4" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="C30" s="6"/>
       <c r="E30" t="b">
@@ -2270,16 +2333,16 @@
         <v>0</v>
       </c>
       <c r="M30" s="3" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="N30" s="3" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="O30" s="3">
         <v>4.0</v>
       </c>
       <c r="P30" s="3" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="Q30" t="b">
         <f t="shared" si="6"/>
@@ -2304,16 +2367,16 @@
     </row>
     <row r="31">
       <c r="A31" s="3" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="C31" s="3">
         <v>4.0</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="E31" t="b">
         <f t="shared" si="1"/>
@@ -2340,16 +2403,16 @@
         <v>0</v>
       </c>
       <c r="M31" s="3" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="N31" s="3" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="O31" s="3">
         <v>4.0</v>
       </c>
       <c r="P31" s="3" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="Q31" t="b">
         <f t="shared" si="6"/>
@@ -2373,14 +2436,17 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B32" s="5" t="s">
+      <c r="A32" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C32" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="D32" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="C32" s="3">
-        <v>4.0</v>
       </c>
       <c r="E32" t="b">
         <f t="shared" si="1"/>
@@ -2392,15 +2458,15 @@
       </c>
       <c r="G32">
         <f>IFNA(INDIRECT(CONCAT("Sheet2!B",MATCH(D32,Sheet2!A:A,0))),0)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H32">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I32">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J32">
         <f t="shared" si="5"/>
@@ -2429,16 +2495,16 @@
     </row>
     <row r="33">
       <c r="A33" s="3" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C33" s="3">
         <v>4.0</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="E33" t="b">
         <f t="shared" si="1"/>
@@ -2465,7 +2531,7 @@
         <v>0</v>
       </c>
       <c r="M33" s="4" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="O33" s="6"/>
       <c r="Q33" t="b">
@@ -2491,16 +2557,16 @@
     </row>
     <row r="34">
       <c r="A34" s="3" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="C34" s="3">
         <v>4.0</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="E34" t="b">
         <f t="shared" si="1"/>
@@ -2527,16 +2593,16 @@
         <v>0</v>
       </c>
       <c r="M34" s="3" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="N34" s="3" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="O34" s="3">
         <v>5.0</v>
       </c>
       <c r="P34" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="Q34" t="b">
         <f t="shared" si="6"/>
@@ -2561,16 +2627,16 @@
     </row>
     <row r="35">
       <c r="A35" s="3" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="C35" s="3">
         <v>4.0</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="E35" t="b">
         <f t="shared" si="1"/>
@@ -2597,16 +2663,16 @@
         <v>0</v>
       </c>
       <c r="M35" s="3" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="N35" s="3" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="O35" s="3">
         <v>4.0</v>
       </c>
       <c r="P35" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Q35" t="b">
         <f t="shared" si="6"/>
@@ -2631,16 +2697,16 @@
     </row>
     <row r="36">
       <c r="A36" s="3" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="C36" s="3">
         <v>4.0</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="E36" t="b">
         <f t="shared" si="1"/>
@@ -2667,16 +2733,16 @@
         <v>0</v>
       </c>
       <c r="M36" s="3" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="N36" s="3" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="O36" s="3">
         <v>5.0</v>
       </c>
       <c r="P36" s="3" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="Q36" t="b">
         <f t="shared" si="6"/>
@@ -2701,16 +2767,16 @@
     </row>
     <row r="37">
       <c r="A37" s="3" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="C37" s="3">
         <v>8.0</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="E37" t="b">
         <f t="shared" si="1"/>
@@ -2737,16 +2803,16 @@
         <v>0</v>
       </c>
       <c r="M37" s="3" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="N37" s="3" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="O37" s="3">
         <v>4.0</v>
       </c>
       <c r="P37" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Q37" t="b">
         <f t="shared" si="6"/>
@@ -2771,14 +2837,17 @@
     </row>
     <row r="38">
       <c r="A38" s="3" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="C38" s="3">
         <v>12.0</v>
       </c>
+      <c r="D38" s="3" t="s">
+        <v>80</v>
+      </c>
       <c r="E38" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -2789,31 +2858,31 @@
       </c>
       <c r="G38">
         <f>IFNA(INDIRECT(CONCAT("Sheet2!B",MATCH(D38,Sheet2!A:A,0))),0)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H38">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="I38">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J38">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="M38" s="5" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="N38" s="5" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="O38" s="5">
         <v>4.0</v>
       </c>
       <c r="P38" s="5" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="Q38" t="b">
         <f t="shared" si="6"/>
@@ -2838,7 +2907,7 @@
     </row>
     <row r="39">
       <c r="A39" s="4" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="C39" s="6"/>
       <c r="E39" t="b">
@@ -2866,19 +2935,19 @@
         <v>0</v>
       </c>
       <c r="L39" s="4" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="M39" s="3" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="N39" s="3" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="O39" s="5">
         <v>4.0</v>
       </c>
       <c r="P39" s="3" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="Q39" t="b">
         <f t="shared" si="6"/>
@@ -2903,16 +2972,16 @@
     </row>
     <row r="40">
       <c r="A40" s="3" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="C40" s="3">
         <v>4.0</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E40" t="b">
         <f t="shared" si="1"/>
@@ -2961,16 +3030,16 @@
     </row>
     <row r="41">
       <c r="A41" s="3" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="C41" s="3">
         <v>4.0</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E41" t="b">
         <f t="shared" si="1"/>
@@ -2997,7 +3066,7 @@
         <v>0</v>
       </c>
       <c r="M41" s="4" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="Q41" t="b">
         <f t="shared" si="6"/>
@@ -3022,16 +3091,16 @@
     </row>
     <row r="42">
       <c r="A42" s="3" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="C42" s="3">
         <v>4.0</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E42" t="b">
         <f t="shared" si="1"/>
@@ -3058,19 +3127,19 @@
         <v>0</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="M42" s="3" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="N42" s="3" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="O42" s="3">
         <v>5.0</v>
       </c>
       <c r="P42" s="3" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="Q42" t="b">
         <f t="shared" si="6"/>
@@ -3095,7 +3164,7 @@
     </row>
     <row r="43">
       <c r="A43" s="4" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="C43" s="6"/>
       <c r="E43" t="b">
@@ -3124,16 +3193,16 @@
       </c>
       <c r="L43" s="7"/>
       <c r="M43" s="3" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="N43" s="3" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="O43" s="3">
         <v>4.0</v>
       </c>
       <c r="P43" s="3" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="Q43" t="b">
         <f t="shared" si="6"/>
@@ -3158,16 +3227,16 @@
     </row>
     <row r="44">
       <c r="A44" s="3" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="C44" s="3">
         <v>4.0</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="E44" t="b">
         <f t="shared" si="1"/>
@@ -3194,19 +3263,19 @@
         <v>4</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="M44" s="3" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="N44" s="3" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="O44" s="3">
         <v>4.0</v>
       </c>
       <c r="P44" s="3" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="Q44" t="b">
         <f t="shared" si="6"/>
@@ -3231,16 +3300,16 @@
     </row>
     <row r="45">
       <c r="A45" s="3" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C45" s="3">
         <v>4.0</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E45" t="b">
         <f t="shared" si="1"/>
@@ -3267,16 +3336,16 @@
         <v>4</v>
       </c>
       <c r="M45" s="3" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="N45" s="3" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="O45" s="3">
         <v>4.0</v>
       </c>
       <c r="P45" s="3" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="Q45" t="b">
         <f t="shared" si="6"/>
@@ -3301,16 +3370,16 @@
     </row>
     <row r="46">
       <c r="A46" s="3" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="C46" s="3">
         <v>4.0</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="E46" t="b">
         <f t="shared" si="1"/>
@@ -3337,19 +3406,19 @@
         <v>4</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="M46" s="3" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="N46" s="3" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="O46" s="3">
         <v>4.0</v>
       </c>
       <c r="P46" s="3" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="Q46" t="b">
         <f t="shared" si="6"/>
@@ -3374,16 +3443,16 @@
     </row>
     <row r="47">
       <c r="A47" s="3" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="C47" s="3">
         <v>4.0</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="E47" t="b">
         <f t="shared" si="1"/>
@@ -3456,7 +3525,7 @@
         <v>0</v>
       </c>
       <c r="M48" s="4" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="Q48" t="b">
         <f t="shared" si="6"/>
@@ -3505,14 +3574,17 @@
         <v>0</v>
       </c>
       <c r="M49" s="3" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="N49" s="3" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="O49" s="3">
         <v>12.0</v>
       </c>
+      <c r="P49" s="3" t="s">
+        <v>80</v>
+      </c>
       <c r="Q49" t="b">
         <f t="shared" si="6"/>
         <v>1</v>
@@ -3523,15 +3595,15 @@
       </c>
       <c r="S49">
         <f>IFNA(INDIRECT(CONCAT("Sheet2!B",MATCH(P49,Sheet2!A:A,0))),0)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T49">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="U49">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50">
@@ -3560,19 +3632,19 @@
         <v>0</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="M50" s="3" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="N50" s="3" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="O50" s="3">
         <v>4.0</v>
       </c>
       <c r="P50" s="3" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="Q50" t="b">
         <f t="shared" si="6"/>
@@ -3621,16 +3693,16 @@
         <v>0</v>
       </c>
       <c r="M51" s="3" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="N51" s="3" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="O51" s="3">
         <v>4.0</v>
       </c>
       <c r="P51" s="3" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="Q51" t="b">
         <f t="shared" si="6"/>
@@ -3679,16 +3751,16 @@
         <v>0</v>
       </c>
       <c r="M52" s="3" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="N52" s="3" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="O52" s="3">
         <v>4.0</v>
       </c>
       <c r="P52" s="3" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="Q52" t="b">
         <f t="shared" si="6"/>
@@ -3737,16 +3809,16 @@
         <v>0</v>
       </c>
       <c r="M53" s="3" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="N53" s="3" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="O53" s="3">
         <v>4.0</v>
       </c>
       <c r="P53" s="3" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="Q53" t="b">
         <f t="shared" si="6"/>
@@ -3795,19 +3867,19 @@
         <v>0</v>
       </c>
       <c r="L54" s="8" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="M54" s="3" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="N54" s="3" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="O54" s="5">
         <v>4.0</v>
       </c>
       <c r="P54" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Q54" t="b">
         <f t="shared" si="6"/>
@@ -3832,14 +3904,14 @@
     </row>
     <row r="57">
       <c r="B57" s="3" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="C57">
         <f>SUM(C5:C54)</f>
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="N57" s="3" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="O57">
         <f>SUM(O5:O54)</f>
@@ -3848,14 +3920,14 @@
     </row>
     <row r="58">
       <c r="B58" s="3" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="C58">
         <f>SUM(C19:C54)</f>
         <v>108</v>
       </c>
       <c r="N58" s="3" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="O58">
         <f>SUM(O19:O54)</f>
@@ -3864,86 +3936,86 @@
     </row>
     <row r="59">
       <c r="B59" s="3" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="C59" s="9">
         <f>SUM(I5:I54)</f>
-        <v>123</v>
+        <v>152</v>
       </c>
       <c r="D59" s="10">
         <f>C59/C57</f>
-        <v>0.8601398601</v>
+        <v>1</v>
       </c>
       <c r="N59" s="3" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="O59" s="9">
         <f>SUM(U5:U54)</f>
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="P59" s="10">
         <f>O59/O57</f>
-        <v>0.8518518519</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
       <c r="B60" s="3" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="C60" s="11">
         <f>SUMPRODUCT(G5:G54,H5:H54)/SUM(H5:H54)</f>
-        <v>4.922077922</v>
+        <v>4.943396226</v>
       </c>
       <c r="N60" s="3" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="O60" s="11">
         <f>SUMPRODUCT(S5:S54,T5:T54)/SUM(T5:T54)</f>
-        <v>4.87804878</v>
+        <v>4.897959184</v>
       </c>
     </row>
     <row r="63">
       <c r="B63" s="3" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="C63">
         <f>SUM(C5:C56)+SUM(O5:O56)-SUM(F5:F56)</f>
-        <v>222</v>
+        <v>231</v>
       </c>
     </row>
     <row r="64">
       <c r="B64" s="3" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="C64" s="9">
         <f>C59+O59-SUM(J5:J54)</f>
-        <v>198</v>
+        <v>231</v>
       </c>
     </row>
     <row r="65">
       <c r="B65" s="3" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="C65" s="9">
         <f>C63-C64</f>
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
       <c r="B66" s="3" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="C66" s="3">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="67">
       <c r="B67" s="3" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="C67" s="11">
         <f>C65/C66</f>
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3974,7 +4046,7 @@
       <formula>AB8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A21:A47">
+  <conditionalFormatting sqref="A21:A47 M49">
     <cfRule type="expression" dxfId="0" priority="3">
       <formula>E21</formula>
     </cfRule>
@@ -4001,11 +4073,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="3" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="B1" s="3">
         <v>5.0</v>
@@ -4013,7 +4085,7 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="B2" s="3">
         <v>5.0</v>
@@ -4021,7 +4093,7 @@
     </row>
     <row r="3">
       <c r="A3" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B3" s="3">
         <v>4.5</v>
@@ -4029,7 +4101,7 @@
     </row>
     <row r="4">
       <c r="A4" s="3" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="B4" s="3">
         <v>4.0</v>
@@ -4037,7 +4109,7 @@
     </row>
     <row r="5">
       <c r="A5" s="3" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="B5" s="3">
         <v>3.5</v>
@@ -4045,7 +4117,7 @@
     </row>
     <row r="6">
       <c r="A6" s="3" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="B6" s="3">
         <v>3.0</v>
@@ -4053,7 +4125,7 @@
     </row>
     <row r="7">
       <c r="A7" s="3" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="B7" s="3">
         <v>2.5</v>
@@ -4061,7 +4133,7 @@
     </row>
     <row r="8">
       <c r="A8" s="3" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="B8" s="3">
         <v>2.0</v>
@@ -4069,7 +4141,7 @@
     </row>
     <row r="9">
       <c r="A9" s="3" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="B9" s="3">
         <v>1.5</v>
@@ -4077,7 +4149,7 @@
     </row>
     <row r="10">
       <c r="A10" s="3" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="B10" s="3">
         <v>1.0</v>
